--- a/config_1.26/permission_server_config.xlsx
+++ b/config_1.26/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -7438,10 +7438,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐敲金蛋活动购买礼包（V8-V10，非新玩家）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_buy_gift_bag_class_hlqjd_029_hlqjd_v4</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9661,6 +9657,10 @@
   </si>
   <si>
     <t>等于冲金鸡渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋活动购买礼包（V8-V12，非新玩家）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11741,7 +11741,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -11759,7 +11759,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11777,7 +11777,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -11795,7 +11795,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11815,7 +11815,7 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C74" s="57">
         <v>22</v>
@@ -11829,7 +11829,7 @@
         <v>138</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C75" s="57">
         <v>22</v>
@@ -11844,7 +11844,7 @@
         <v>139</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C76" s="57">
         <v>23</v>
@@ -11859,7 +11859,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C77" s="57">
         <v>23</v>
@@ -11874,7 +11874,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C78" s="9">
         <v>24</v>
@@ -11889,7 +11889,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C79" s="9">
         <v>25</v>
@@ -11904,7 +11904,7 @@
         <v>143</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C80" s="9">
         <v>26</v>
@@ -11919,7 +11919,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -11934,7 +11934,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -12916,7 +12916,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="34" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -13120,7 +13120,7 @@
     </row>
     <row r="200" spans="1:10" s="65" customFormat="1">
       <c r="A200" s="64" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B200" s="64" t="s">
         <v>330</v>
@@ -14458,7 +14458,7 @@
         <v>1374</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C349" s="3">
         <v>226</v>
@@ -14521,10 +14521,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="27" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B355" s="27" t="s">
         <v>1827</v>
-      </c>
-      <c r="B355" s="27" t="s">
-        <v>1828</v>
       </c>
       <c r="C355" s="3">
         <v>8</v>
@@ -14532,10 +14532,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="27" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C356" s="3">
         <v>343</v>
@@ -14554,10 +14554,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="27" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B360" s="34" t="s">
         <v>1789</v>
-      </c>
-      <c r="B360" s="34" t="s">
-        <v>1790</v>
       </c>
       <c r="C360" s="3">
         <v>332</v>
@@ -14568,7 +14568,7 @@
         <v>1456</v>
       </c>
       <c r="B361" s="34" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C361" s="3">
         <v>242</v>
@@ -14590,7 +14590,7 @@
         <v>1452</v>
       </c>
       <c r="B363" s="27" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C363" s="3">
         <v>244</v>
@@ -14601,7 +14601,7 @@
         <v>1490</v>
       </c>
       <c r="B366" s="27" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C366" s="3">
         <v>248</v>
@@ -14609,7 +14609,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="27" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B368" s="27" t="s">
         <v>1514</v>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="27" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B379" s="27" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C379" s="3">
         <v>319</v>
@@ -14686,10 +14686,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="27" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B381" s="27" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C381" s="3">
         <v>326</v>
@@ -14697,10 +14697,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="27" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B383" s="27" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C383" s="3">
         <v>327</v>
@@ -14708,10 +14708,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="27" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C385" s="3">
         <v>328</v>
@@ -14719,10 +14719,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="27" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B387" s="27" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C387" s="3">
         <v>319</v>
@@ -14730,10 +14730,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="34" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B389" s="34" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C389" s="8">
         <v>127</v>
@@ -14741,10 +14741,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="34" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B390" s="34" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C390" s="8">
         <v>128</v>
@@ -14752,10 +14752,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="34" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B391" s="34" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C391" s="8">
         <v>129</v>
@@ -14763,10 +14763,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="34" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C392" s="8">
         <v>130</v>
@@ -14774,10 +14774,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="34" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C393" s="8">
         <v>131</v>
@@ -14785,10 +14785,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="34" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C394" s="8">
         <v>132</v>
@@ -14796,10 +14796,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="34" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C395" s="8">
         <v>133</v>
@@ -14807,10 +14807,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="34" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C396" s="8">
         <v>134</v>
@@ -14818,10 +14818,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="34" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C397" s="8">
         <v>135</v>
@@ -14829,10 +14829,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="27" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B399" s="27" t="s">
         <v>1797</v>
-      </c>
-      <c r="B399" s="27" t="s">
-        <v>1798</v>
       </c>
       <c r="C399" s="3">
         <v>333</v>
@@ -14840,10 +14840,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="27" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B400" s="27" t="s">
         <v>1799</v>
-      </c>
-      <c r="B400" s="27" t="s">
-        <v>1800</v>
       </c>
       <c r="C400" s="3">
         <v>333</v>
@@ -14851,10 +14851,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="27" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B401" s="27" t="s">
         <v>1801</v>
-      </c>
-      <c r="B401" s="27" t="s">
-        <v>1802</v>
       </c>
       <c r="C401" s="3">
         <v>333</v>
@@ -14862,10 +14862,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="27" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B402" s="27" t="s">
         <v>1803</v>
-      </c>
-      <c r="B402" s="27" t="s">
-        <v>1804</v>
       </c>
       <c r="C402" s="3">
         <v>333</v>
@@ -14873,10 +14873,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="27" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B403" s="27" t="s">
         <v>1805</v>
-      </c>
-      <c r="B403" s="27" t="s">
-        <v>1806</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -14884,10 +14884,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="27" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B405" s="27" t="s">
         <v>1812</v>
-      </c>
-      <c r="B405" s="27" t="s">
-        <v>1813</v>
       </c>
       <c r="C405" s="3">
         <v>91</v>
@@ -14895,10 +14895,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="27" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B407" s="27" t="s">
         <v>1852</v>
-      </c>
-      <c r="B407" s="27" t="s">
-        <v>1853</v>
       </c>
       <c r="C407" s="3">
         <v>339</v>
@@ -14906,10 +14906,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B409" s="3" t="s">
         <v>1857</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>1858</v>
       </c>
       <c r="C409" s="3">
         <v>326</v>
@@ -14917,37 +14917,37 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="34" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B411" s="10" t="s">
         <v>1859</v>
-      </c>
-      <c r="B411" s="10" t="s">
-        <v>1860</v>
       </c>
       <c r="C411" s="9"/>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="18" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B412" s="10" t="s">
         <v>1861</v>
-      </c>
-      <c r="B412" s="10" t="s">
-        <v>1862</v>
       </c>
       <c r="C412" s="9"/>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="18" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B413" s="10" t="s">
         <v>1863</v>
-      </c>
-      <c r="B413" s="10" t="s">
-        <v>1864</v>
       </c>
       <c r="C413" s="9"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="18" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B414" s="10" t="s">
         <v>1865</v>
-      </c>
-      <c r="B414" s="10" t="s">
-        <v>1866</v>
       </c>
       <c r="C414" s="57">
         <v>22</v>
@@ -14955,10 +14955,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="18" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>1867</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>1868</v>
       </c>
       <c r="C415" s="57">
         <v>22</v>
@@ -14966,10 +14966,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="18" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B416" s="10" t="s">
         <v>1869</v>
-      </c>
-      <c r="B416" s="10" t="s">
-        <v>1870</v>
       </c>
       <c r="C416" s="57">
         <v>22</v>
@@ -14977,10 +14977,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="18" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B417" s="10" t="s">
         <v>1871</v>
-      </c>
-      <c r="B417" s="10" t="s">
-        <v>1872</v>
       </c>
       <c r="C417" s="57">
         <v>23</v>
@@ -14988,10 +14988,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="18" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B418" s="10" t="s">
         <v>1873</v>
-      </c>
-      <c r="B418" s="10" t="s">
-        <v>1874</v>
       </c>
       <c r="C418" s="57">
         <v>23</v>
@@ -14999,10 +14999,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="18" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B419" s="10" t="s">
         <v>1875</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>1876</v>
       </c>
       <c r="C419" s="9">
         <v>24</v>
@@ -15010,10 +15010,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="18" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B420" s="10" t="s">
         <v>1877</v>
-      </c>
-      <c r="B420" s="10" t="s">
-        <v>1878</v>
       </c>
       <c r="C420" s="9">
         <v>25</v>
@@ -15021,10 +15021,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="18" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B421" s="10" t="s">
         <v>1879</v>
-      </c>
-      <c r="B421" s="10" t="s">
-        <v>1880</v>
       </c>
       <c r="C421" s="9">
         <v>26</v>
@@ -15032,10 +15032,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="18" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B422" s="10" t="s">
         <v>1881</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>1882</v>
       </c>
       <c r="C422" s="9">
         <v>26</v>
@@ -15043,10 +15043,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="18" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B423" s="10" t="s">
         <v>1883</v>
-      </c>
-      <c r="B423" s="10" t="s">
-        <v>1884</v>
       </c>
       <c r="C423" s="9">
         <v>26</v>
@@ -15054,10 +15054,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="27" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B425" s="27" t="s">
         <v>1888</v>
-      </c>
-      <c r="B425" s="27" t="s">
-        <v>1889</v>
       </c>
       <c r="C425" s="3">
         <v>342</v>
@@ -15065,10 +15065,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="27" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B427" s="27" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C427" s="3">
         <v>344</v>
@@ -15076,10 +15076,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="27" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B428" s="27" t="s">
         <v>1943</v>
-      </c>
-      <c r="B428" s="27" t="s">
-        <v>1944</v>
       </c>
       <c r="C428" s="3">
         <v>345</v>
@@ -15087,10 +15087,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B430" s="27" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C430" s="3">
         <v>346</v>
@@ -15098,10 +15098,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C432" s="3">
         <v>347</v>
@@ -15109,10 +15109,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="27" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B433" s="27" t="s">
         <v>1932</v>
-      </c>
-      <c r="B433" s="27" t="s">
-        <v>1933</v>
       </c>
       <c r="C433" s="3">
         <v>348</v>
@@ -15120,10 +15120,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B435" s="27" t="s">
         <v>1948</v>
-      </c>
-      <c r="B435" s="27" t="s">
-        <v>1949</v>
       </c>
       <c r="C435" s="3">
         <v>351</v>
@@ -15131,10 +15131,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="27" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B436" s="27" t="s">
         <v>1950</v>
-      </c>
-      <c r="B436" s="27" t="s">
-        <v>1951</v>
       </c>
       <c r="C436" s="3">
         <v>352</v>
@@ -15142,10 +15142,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B438" s="27" t="s">
         <v>1959</v>
-      </c>
-      <c r="B438" s="27" t="s">
-        <v>1960</v>
       </c>
       <c r="C438" s="3">
         <v>353</v>
@@ -15153,10 +15153,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="3" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C440" s="3">
         <v>354</v>
@@ -15164,10 +15164,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="27" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B442" s="27" t="s">
         <v>1969</v>
-      </c>
-      <c r="B442" s="27" t="s">
-        <v>1970</v>
       </c>
       <c r="C442" s="3">
         <v>355</v>
@@ -15179,10 +15179,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B444" s="27" t="s">
         <v>1998</v>
-      </c>
-      <c r="B444" s="27" t="s">
-        <v>1999</v>
       </c>
       <c r="C444" s="3">
         <v>368</v>
@@ -15190,10 +15190,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="76" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B446" s="27" t="s">
         <v>2005</v>
-      </c>
-      <c r="B446" s="27" t="s">
-        <v>2006</v>
       </c>
       <c r="C446" s="3">
         <v>356</v>
@@ -15201,10 +15201,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="76" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B447" s="27" t="s">
         <v>2007</v>
-      </c>
-      <c r="B447" s="27" t="s">
-        <v>2008</v>
       </c>
       <c r="C447" s="3">
         <v>360</v>
@@ -15212,10 +15212,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C449" s="3">
         <v>369</v>
@@ -15223,10 +15223,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="27" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B451" s="27" t="s">
         <v>2026</v>
-      </c>
-      <c r="B451" s="27" t="s">
-        <v>2027</v>
       </c>
       <c r="C451" s="3">
         <v>374</v>
@@ -15234,10 +15234,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="27" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B453" s="27" t="s">
         <v>2032</v>
-      </c>
-      <c r="B453" s="27" t="s">
-        <v>2033</v>
       </c>
       <c r="C453" s="3">
         <v>375</v>
@@ -15245,10 +15245,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="27" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B454" s="27" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C454" s="3">
         <v>376</v>
@@ -15256,10 +15256,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="27" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B455" s="27" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C455" s="3">
         <v>377</v>
@@ -15267,10 +15267,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="27" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C456" s="3">
         <v>378</v>
@@ -15278,10 +15278,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="27" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B458" s="27" t="s">
         <v>2042</v>
-      </c>
-      <c r="B458" s="27" t="s">
-        <v>2043</v>
       </c>
       <c r="C458" s="3">
         <v>379</v>
@@ -15289,10 +15289,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="3" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B460" s="3" t="s">
         <v>2057</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>2058</v>
       </c>
       <c r="C460" s="3">
         <v>381</v>
@@ -15300,10 +15300,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="27" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B462" s="27" t="s">
         <v>2072</v>
-      </c>
-      <c r="B462" s="27" t="s">
-        <v>2073</v>
       </c>
       <c r="C462" s="3">
         <v>385</v>
@@ -15311,10 +15311,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="27" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B463" s="27" t="s">
         <v>2074</v>
-      </c>
-      <c r="B463" s="27" t="s">
-        <v>2075</v>
       </c>
       <c r="C463" s="3">
         <v>386</v>
@@ -15332,11 +15332,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D328" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D274" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D340" sqref="D340"/>
+      <selection pane="bottomRight" activeCell="G291" sqref="G291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15518,7 +15518,7 @@
         <v>1496</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -15674,7 +15674,7 @@
         <v>467</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1163</v>
@@ -21386,7 +21386,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>772</v>
@@ -21933,7 +21933,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="44" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>801</v>
@@ -24788,7 +24788,7 @@
         <v>0</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D278" s="16" t="s">
         <v>1582</v>
@@ -24825,7 +24825,7 @@
         <v>1597</v>
       </c>
       <c r="D279" s="87" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E279" s="86"/>
       <c r="F279" s="86"/>
@@ -24992,7 +24992,7 @@
         <v>0</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D284" s="17" t="s">
         <v>1614</v>
@@ -25026,7 +25026,7 @@
         <v>0</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D285" s="16" t="s">
         <v>1632</v>
@@ -25179,13 +25179,13 @@
         <v>1</v>
       </c>
       <c r="J289" s="75" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="K289" s="75">
         <v>1605542400</v>
       </c>
       <c r="L289" s="75" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="77" customFormat="1">
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="C290" s="121" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D290" s="121" t="s">
         <v>1643</v>
@@ -25213,13 +25213,13 @@
         <v>1</v>
       </c>
       <c r="J290" s="75" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="K290" s="75">
         <v>1605542400</v>
       </c>
       <c r="L290" s="75" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="77" customFormat="1">
@@ -25230,10 +25230,10 @@
         <v>0</v>
       </c>
       <c r="C291" s="120" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D291" s="121" t="s">
-        <v>1644</v>
+        <v>2081</v>
       </c>
       <c r="E291" s="75"/>
       <c r="F291" s="75"/>
@@ -25247,13 +25247,13 @@
         <v>1</v>
       </c>
       <c r="J291" s="75" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="K291" s="75">
         <v>1605542400</v>
       </c>
       <c r="L291" s="75" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="77" customFormat="1">
@@ -25264,10 +25264,10 @@
         <v>0</v>
       </c>
       <c r="C292" s="120" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D292" s="120" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E292" s="75"/>
       <c r="F292" s="75"/>
@@ -25281,13 +25281,13 @@
         <v>1</v>
       </c>
       <c r="J292" s="75" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="K292" s="99">
         <v>1605542400</v>
       </c>
       <c r="L292" s="100" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -25298,10 +25298,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G293" s="17">
         <v>298</v>
@@ -25330,7 +25330,7 @@
         <v>1</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D294" s="16" t="s">
         <v>1584</v>
@@ -25362,7 +25362,7 @@
         <v>1</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D295" s="16" t="s">
         <v>1585</v>
@@ -25394,7 +25394,7 @@
         <v>1</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D296" s="16" t="s">
         <v>1586</v>
@@ -25426,7 +25426,7 @@
         <v>1</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D297" s="16" t="s">
         <v>1587</v>
@@ -25458,10 +25458,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G298" s="17">
         <v>303</v>
@@ -25490,10 +25490,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G299" s="17">
         <v>304</v>
@@ -25522,10 +25522,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="G300" s="17">
         <v>305</v>
@@ -25554,10 +25554,10 @@
         <v>1</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="G301" s="17">
         <v>306</v>
@@ -25586,10 +25586,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G302" s="17">
         <v>307</v>
@@ -25618,10 +25618,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="30" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D303" s="16" t="s">
         <v>1671</v>
-      </c>
-      <c r="D303" s="16" t="s">
-        <v>1672</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -25650,10 +25650,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D304" s="30" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -25682,10 +25682,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -25714,10 +25714,10 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G306" s="26">
         <v>311</v>
@@ -25746,7 +25746,7 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D307" s="16" t="s">
         <v>1585</v>
@@ -25778,7 +25778,7 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D308" s="16" t="s">
         <v>1586</v>
@@ -25810,7 +25810,7 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D309" s="16" t="s">
         <v>1587</v>
@@ -25842,10 +25842,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D310" s="30" t="s">
         <v>1685</v>
-      </c>
-      <c r="D310" s="30" t="s">
-        <v>1686</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -25874,10 +25874,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -25906,10 +25906,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D312" s="30" t="s">
         <v>1689</v>
-      </c>
-      <c r="D312" s="30" t="s">
-        <v>1690</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -25938,10 +25938,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -25970,10 +25970,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D314" s="30" t="s">
         <v>1695</v>
-      </c>
-      <c r="D314" s="30" t="s">
-        <v>1696</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -26002,10 +26002,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="C316" s="16" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D316" s="16" t="s">
         <v>1713</v>
-      </c>
-      <c r="D316" s="16" t="s">
-        <v>1714</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -26057,7 +26057,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -26089,7 +26089,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -26100,10 +26100,10 @@
         <v>0</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -26121,7 +26121,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -26132,10 +26132,10 @@
         <v>0</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -26153,7 +26153,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -26164,10 +26164,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -26196,10 +26196,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="120" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D321" s="120" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E321" s="121"/>
       <c r="F321" s="121"/>
@@ -26219,7 +26219,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="120" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -26230,10 +26230,10 @@
         <v>0</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -26251,7 +26251,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -26262,10 +26262,10 @@
         <v>0</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -26283,7 +26283,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -26294,10 +26294,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -26309,7 +26309,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="16" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="K324" s="26">
         <v>1598916600</v>
@@ -26326,10 +26326,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -26358,10 +26358,10 @@
         <v>0</v>
       </c>
       <c r="C326" s="120" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D326" s="120" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -26379,7 +26379,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -26390,10 +26390,10 @@
         <v>0</v>
       </c>
       <c r="C327" s="120" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D327" s="120" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -26411,7 +26411,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -26422,10 +26422,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -26454,10 +26454,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D329" s="26" t="s">
         <v>1815</v>
-      </c>
-      <c r="D329" s="26" t="s">
-        <v>1816</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -26486,10 +26486,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -26501,7 +26501,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -26518,10 +26518,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D331" s="26" t="s">
         <v>1818</v>
-      </c>
-      <c r="D331" s="26" t="s">
-        <v>1819</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -26550,10 +26550,10 @@
         <v>0</v>
       </c>
       <c r="C332" s="92" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D332" s="92" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E332" s="91"/>
       <c r="F332" s="91"/>
@@ -26573,7 +26573,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="92" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -26584,10 +26584,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -26599,7 +26599,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -26616,10 +26616,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -26650,10 +26650,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D335" s="16" t="s">
         <v>1890</v>
-      </c>
-      <c r="D335" s="16" t="s">
-        <v>1891</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -26673,7 +26673,7 @@
         <v>1606176000</v>
       </c>
       <c r="L335" s="109" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1">
@@ -26684,10 +26684,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>1892</v>
-      </c>
-      <c r="D336" s="16" t="s">
-        <v>1893</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -26701,13 +26701,13 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
       </c>
       <c r="L336" s="109" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -26718,10 +26718,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26750,10 +26750,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26784,10 +26784,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="76" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G339" s="26">
         <v>357</v>
@@ -26816,10 +26816,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="76" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G340" s="26">
         <v>358</v>
@@ -26848,10 +26848,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="76" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G341" s="26">
         <v>359</v>
@@ -26880,10 +26880,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="76" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G342" s="26">
         <v>361</v>
@@ -26912,10 +26912,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="76" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G343" s="26">
         <v>362</v>
@@ -26944,10 +26944,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="76" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G344" s="26">
         <v>363</v>
@@ -26976,10 +26976,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="76" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="G345" s="26">
         <v>364</v>
@@ -27008,10 +27008,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D346" s="83" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="G346" s="26">
         <v>365</v>
@@ -27040,10 +27040,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="30" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D347" s="83" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G347" s="26">
         <v>366</v>
@@ -27072,10 +27072,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="120" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D348" s="120" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -27106,10 +27106,10 @@
         <v>1</v>
       </c>
       <c r="C349" s="108" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D349" s="108" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E349" s="108"/>
       <c r="F349" s="108"/>
@@ -27123,13 +27123,13 @@
         <v>1</v>
       </c>
       <c r="J349" s="109" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K349" s="108">
         <v>1610409600</v>
       </c>
       <c r="L349" s="109" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="110" customFormat="1">
@@ -27140,10 +27140,10 @@
         <v>1</v>
       </c>
       <c r="C350" s="108" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D350" s="108" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E350" s="108"/>
       <c r="F350" s="108"/>
@@ -27157,13 +27157,13 @@
         <v>1</v>
       </c>
       <c r="J350" s="109" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K350" s="108">
         <v>1610409600</v>
       </c>
       <c r="L350" s="109" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="110" customFormat="1">
@@ -27174,10 +27174,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="109" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D351" s="109" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E351" s="108"/>
       <c r="F351" s="108"/>
@@ -27191,13 +27191,13 @@
         <v>1</v>
       </c>
       <c r="J351" s="109" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K351" s="108">
         <v>1610380800</v>
       </c>
       <c r="L351" s="109" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="110" customFormat="1">
@@ -27208,10 +27208,10 @@
         <v>1</v>
       </c>
       <c r="C352" s="109" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D352" s="109" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E352" s="108"/>
       <c r="F352" s="108"/>
@@ -27225,13 +27225,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="109" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K352" s="108">
         <v>1610380800</v>
       </c>
       <c r="L352" s="109" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="110" customFormat="1">
@@ -27242,10 +27242,10 @@
         <v>1</v>
       </c>
       <c r="C353" s="111" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D353" s="108" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="E353" s="108"/>
       <c r="F353" s="108"/>
@@ -27276,10 +27276,10 @@
         <v>1</v>
       </c>
       <c r="C354" s="114" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D354" s="114" t="s">
         <v>2059</v>
-      </c>
-      <c r="D354" s="114" t="s">
-        <v>2060</v>
       </c>
       <c r="E354" s="115"/>
       <c r="F354" s="115"/>
@@ -27299,7 +27299,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="114" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -27310,10 +27310,10 @@
         <v>1</v>
       </c>
       <c r="C355" s="114" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D355" s="114" t="s">
         <v>2062</v>
-      </c>
-      <c r="D355" s="114" t="s">
-        <v>2063</v>
       </c>
       <c r="E355" s="115"/>
       <c r="F355" s="115"/>
@@ -27333,7 +27333,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="114" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -27344,10 +27344,10 @@
         <v>1</v>
       </c>
       <c r="C356" s="114" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D356" s="114" t="s">
         <v>2065</v>
-      </c>
-      <c r="D356" s="114" t="s">
-        <v>2066</v>
       </c>
       <c r="E356" s="115"/>
       <c r="F356" s="115"/>
@@ -27367,7 +27367,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="114" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
   </sheetData>
@@ -27383,11 +27383,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I947"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C902" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C722" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G913" sqref="G913"/>
+      <selection pane="bottomRight" activeCell="E745" sqref="E745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27971,7 +27971,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1050</v>
@@ -29584,7 +29584,7 @@
         <v>863</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -30807,7 +30807,7 @@
         <v>1043</v>
       </c>
       <c r="D147" s="104" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E147" s="103">
         <v>2</v>
@@ -30882,7 +30882,7 @@
         <v>1043</v>
       </c>
       <c r="D150" s="104" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E150" s="103">
         <v>2</v>
@@ -30891,7 +30891,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="104" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -31551,7 +31551,7 @@
         <v>1043</v>
       </c>
       <c r="D179" s="85" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -31574,7 +31574,7 @@
         <v>1043</v>
       </c>
       <c r="D180" s="85" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -31583,7 +31583,7 @@
         <v>5</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="8" customFormat="1">
@@ -31981,7 +31981,7 @@
         <v>1043</v>
       </c>
       <c r="D197" s="96" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E197" s="94">
         <v>2</v>
@@ -32006,7 +32006,7 @@
         <v>1043</v>
       </c>
       <c r="D198" s="96" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E198" s="94">
         <v>2</v>
@@ -32015,7 +32015,7 @@
         <v>5</v>
       </c>
       <c r="G198" s="95" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
@@ -41411,7 +41411,7 @@
         <v>1153</v>
       </c>
       <c r="D596" s="10" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E596" s="8">
         <v>5</v>
@@ -41461,7 +41461,7 @@
         <v>1153</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -41486,7 +41486,7 @@
         <v>1153</v>
       </c>
       <c r="D599" s="10" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E599" s="14">
         <v>2</v>
@@ -41511,7 +41511,7 @@
         <v>1153</v>
       </c>
       <c r="D600" s="15" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E600" s="14">
         <v>2</v>
@@ -41561,7 +41561,7 @@
         <v>1153</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E602" s="14">
         <v>5</v>
@@ -41611,7 +41611,7 @@
         <v>1153</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -41636,7 +41636,7 @@
         <v>1153</v>
       </c>
       <c r="D605" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E605" s="14">
         <v>2</v>
@@ -41661,7 +41661,7 @@
         <v>1153</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -41711,7 +41711,7 @@
         <v>1153</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E608" s="8">
         <v>5</v>
@@ -41761,7 +41761,7 @@
         <v>1153</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -41786,7 +41786,7 @@
         <v>1153</v>
       </c>
       <c r="D611" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E611" s="14">
         <v>2</v>
@@ -41811,7 +41811,7 @@
         <v>1153</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E612" s="14">
         <v>2</v>
@@ -41861,7 +41861,7 @@
         <v>1153</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E614" s="8">
         <v>5</v>
@@ -41911,7 +41911,7 @@
         <v>1153</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -41936,7 +41936,7 @@
         <v>1153</v>
       </c>
       <c r="D617" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E617" s="14">
         <v>2</v>
@@ -41961,7 +41961,7 @@
         <v>1153</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E618" s="14">
         <v>2</v>
@@ -42011,7 +42011,7 @@
         <v>1153</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E620" s="8">
         <v>5</v>
@@ -42061,7 +42061,7 @@
         <v>1153</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -42086,7 +42086,7 @@
         <v>1153</v>
       </c>
       <c r="D623" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E623" s="14">
         <v>2</v>
@@ -42111,7 +42111,7 @@
         <v>1153</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -42161,7 +42161,7 @@
         <v>1153</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E626" s="8">
         <v>5</v>
@@ -42211,7 +42211,7 @@
         <v>1153</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -42236,7 +42236,7 @@
         <v>1153</v>
       </c>
       <c r="D629" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E629" s="14">
         <v>2</v>
@@ -42261,7 +42261,7 @@
         <v>1153</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E630" s="14">
         <v>2</v>
@@ -42818,7 +42818,7 @@
         <v>1043</v>
       </c>
       <c r="D653" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E653" s="8">
         <v>2</v>
@@ -42827,7 +42827,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="53" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H653" s="8"/>
       <c r="I653" s="8"/>
@@ -43318,7 +43318,7 @@
         <v>1153</v>
       </c>
       <c r="D673" s="10" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E673" s="8">
         <v>2</v>
@@ -44867,7 +44867,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -44917,7 +44917,7 @@
         <v>1</v>
       </c>
       <c r="G737" s="19" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H737" s="8"/>
       <c r="I737" s="8"/>
@@ -44942,7 +44942,7 @@
         <v>1</v>
       </c>
       <c r="G738" s="19" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H738" s="8"/>
       <c r="I738" s="8"/>
@@ -44992,7 +44992,7 @@
         <v>1</v>
       </c>
       <c r="G740" s="19" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H740" s="8"/>
       <c r="I740" s="8"/>
@@ -45008,7 +45008,7 @@
         <v>1128</v>
       </c>
       <c r="D741" s="74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E741" s="74">
         <v>4</v>
@@ -45017,7 +45017,7 @@
         <v>1</v>
       </c>
       <c r="G741" s="19" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H741" s="8"/>
       <c r="I741" s="8"/>
@@ -45067,7 +45067,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
@@ -45217,7 +45217,7 @@
         <v>1</v>
       </c>
       <c r="G749" s="15" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H749" s="8"/>
       <c r="I749" s="8"/>
@@ -45292,7 +45292,7 @@
         <v>1</v>
       </c>
       <c r="G752" s="15" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H752" s="8"/>
       <c r="I752" s="8"/>
@@ -45367,7 +45367,7 @@
         <v>1</v>
       </c>
       <c r="G755" s="15" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H755" s="8"/>
       <c r="I755" s="8"/>
@@ -45383,7 +45383,7 @@
         <v>1063</v>
       </c>
       <c r="D756" s="10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E756" s="8">
         <v>2</v>
@@ -45517,7 +45517,7 @@
         <v>1</v>
       </c>
       <c r="G761" s="15" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H761" s="8"/>
       <c r="I761" s="8"/>
@@ -45558,7 +45558,7 @@
         <v>1043</v>
       </c>
       <c r="D763" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E763" s="8">
         <v>2</v>
@@ -45567,7 +45567,7 @@
         <v>1</v>
       </c>
       <c r="G763" s="10" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H763" s="8"/>
       <c r="I763" s="8"/>
@@ -45608,7 +45608,7 @@
         <v>1043</v>
       </c>
       <c r="D765" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E765" s="8">
         <v>2</v>
@@ -45617,7 +45617,7 @@
         <v>2</v>
       </c>
       <c r="G765" s="10" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H765" s="8"/>
       <c r="I765" s="8"/>
@@ -45658,7 +45658,7 @@
         <v>1043</v>
       </c>
       <c r="D767" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E767" s="8">
         <v>2</v>
@@ -45667,7 +45667,7 @@
         <v>3</v>
       </c>
       <c r="G767" s="10" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H767" s="8"/>
       <c r="I767" s="8"/>
@@ -45733,7 +45733,7 @@
         <v>1043</v>
       </c>
       <c r="D770" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E770" s="8">
         <v>2</v>
@@ -45742,7 +45742,7 @@
         <v>1</v>
       </c>
       <c r="G770" s="10" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H770" s="8"/>
       <c r="I770" s="8"/>
@@ -45767,7 +45767,7 @@
         <v>1</v>
       </c>
       <c r="G771" s="15" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H771" s="8"/>
       <c r="I771" s="8"/>
@@ -45833,7 +45833,7 @@
         <v>1043</v>
       </c>
       <c r="D774" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E774" s="8">
         <v>2</v>
@@ -45842,7 +45842,7 @@
         <v>1</v>
       </c>
       <c r="G774" s="10" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H774" s="8"/>
       <c r="I774" s="8"/>
@@ -45867,7 +45867,7 @@
         <v>1</v>
       </c>
       <c r="G775" s="15" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H775" s="8"/>
       <c r="I775" s="8"/>
@@ -45942,7 +45942,7 @@
         <v>1</v>
       </c>
       <c r="G778" s="15" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H778" s="8"/>
       <c r="I778" s="8"/>
@@ -45958,7 +45958,7 @@
         <v>1043</v>
       </c>
       <c r="D779" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E779" s="8">
         <v>2</v>
@@ -45967,7 +45967,7 @@
         <v>1</v>
       </c>
       <c r="G779" s="10" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H779" s="8"/>
       <c r="I779" s="8"/>
@@ -45983,7 +45983,7 @@
         <v>1043</v>
       </c>
       <c r="D780" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E780" s="8">
         <v>2</v>
@@ -45992,7 +45992,7 @@
         <v>1</v>
       </c>
       <c r="G780" s="10" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H780" s="8"/>
       <c r="I780" s="8"/>
@@ -46008,7 +46008,7 @@
         <v>1043</v>
       </c>
       <c r="D781" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E781" s="8">
         <v>5</v>
@@ -46017,7 +46017,7 @@
         <v>1</v>
       </c>
       <c r="G781" s="10" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H781" s="8"/>
       <c r="I781" s="8"/>
@@ -46033,7 +46033,7 @@
         <v>1063</v>
       </c>
       <c r="D782" s="10" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E782" s="8">
         <v>2</v>
@@ -46058,7 +46058,7 @@
         <v>1043</v>
       </c>
       <c r="D783" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E783" s="8">
         <v>5</v>
@@ -46067,7 +46067,7 @@
         <v>1</v>
       </c>
       <c r="G783" s="10" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H783" s="8"/>
       <c r="I783" s="8"/>
@@ -46108,7 +46108,7 @@
         <v>1043</v>
       </c>
       <c r="D785" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E785" s="8">
         <v>5</v>
@@ -46117,7 +46117,7 @@
         <v>2</v>
       </c>
       <c r="G785" s="10" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H785" s="8"/>
       <c r="I785" s="8"/>
@@ -46158,7 +46158,7 @@
         <v>1043</v>
       </c>
       <c r="D787" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E787" s="8">
         <v>5</v>
@@ -46167,7 +46167,7 @@
         <v>3</v>
       </c>
       <c r="G787" s="10" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H787" s="8"/>
       <c r="I787" s="8"/>
@@ -46233,7 +46233,7 @@
         <v>1043</v>
       </c>
       <c r="D790" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E790" s="8">
         <v>5</v>
@@ -46242,7 +46242,7 @@
         <v>1</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H790" s="8"/>
       <c r="I790" s="8"/>
@@ -46267,7 +46267,7 @@
         <v>1</v>
       </c>
       <c r="G791" s="15" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H791" s="8"/>
       <c r="I791" s="8"/>
@@ -46333,7 +46333,7 @@
         <v>1043</v>
       </c>
       <c r="D794" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E794" s="8">
         <v>5</v>
@@ -46342,7 +46342,7 @@
         <v>1</v>
       </c>
       <c r="G794" s="10" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H794" s="8"/>
       <c r="I794" s="8"/>
@@ -46367,7 +46367,7 @@
         <v>1</v>
       </c>
       <c r="G795" s="15" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H795" s="8"/>
       <c r="I795" s="8"/>
@@ -46442,7 +46442,7 @@
         <v>1</v>
       </c>
       <c r="G798" s="15" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H798" s="8"/>
       <c r="I798" s="8"/>
@@ -46458,7 +46458,7 @@
         <v>1043</v>
       </c>
       <c r="D799" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E799" s="8">
         <v>5</v>
@@ -46467,7 +46467,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H799" s="8"/>
       <c r="I799" s="8"/>
@@ -46483,7 +46483,7 @@
         <v>1043</v>
       </c>
       <c r="D800" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E800" s="8">
         <v>5</v>
@@ -46492,7 +46492,7 @@
         <v>1</v>
       </c>
       <c r="G800" s="10" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H800" s="8"/>
       <c r="I800" s="8"/>
@@ -46508,7 +46508,7 @@
         <v>1043</v>
       </c>
       <c r="D801" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E801" s="9">
         <v>2</v>
@@ -46517,7 +46517,7 @@
         <v>1</v>
       </c>
       <c r="G801" s="53" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H801" s="8"/>
       <c r="I801" s="8"/>
@@ -46533,7 +46533,7 @@
         <v>1043</v>
       </c>
       <c r="D802" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E802" s="8">
         <v>5</v>
@@ -46542,7 +46542,7 @@
         <v>1</v>
       </c>
       <c r="G802" s="10" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H802" s="8"/>
       <c r="I802" s="8"/>
@@ -46558,7 +46558,7 @@
         <v>1043</v>
       </c>
       <c r="D803" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E803" s="9">
         <v>2</v>
@@ -46567,7 +46567,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="53" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H803" s="8"/>
       <c r="I803" s="8"/>
@@ -46583,7 +46583,7 @@
         <v>1043</v>
       </c>
       <c r="D804" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E804" s="8">
         <v>5</v>
@@ -46592,7 +46592,7 @@
         <v>1</v>
       </c>
       <c r="G804" s="10" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H804" s="8"/>
       <c r="I804" s="8"/>
@@ -46608,7 +46608,7 @@
         <v>1043</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -46617,7 +46617,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="9" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H805" s="8"/>
       <c r="I805" s="8"/>
@@ -46633,7 +46633,7 @@
         <v>1043</v>
       </c>
       <c r="D806" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E806" s="9">
         <v>2</v>
@@ -46642,7 +46642,7 @@
         <v>1</v>
       </c>
       <c r="G806" s="53" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H806" s="8"/>
       <c r="I806" s="8"/>
@@ -46658,7 +46658,7 @@
         <v>1043</v>
       </c>
       <c r="D807" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E807" s="9">
         <v>5</v>
@@ -46683,7 +46683,7 @@
         <v>1043</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -46692,7 +46692,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="53" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H808" s="8"/>
       <c r="I808" s="8"/>
@@ -46733,7 +46733,7 @@
         <v>1043</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E810" s="9">
         <v>5</v>
@@ -46833,7 +46833,7 @@
         <v>1043</v>
       </c>
       <c r="D814" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E814" s="9">
         <v>5</v>
@@ -46855,19 +46855,19 @@
         <v>324</v>
       </c>
       <c r="C815" s="10" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D815" s="10" t="s">
         <v>1722</v>
       </c>
-      <c r="D815" s="10" t="s">
+      <c r="E815" s="8">
+        <v>2</v>
+      </c>
+      <c r="F815" s="8">
+        <v>1</v>
+      </c>
+      <c r="G815" s="10" t="s">
         <v>1723</v>
-      </c>
-      <c r="E815" s="8">
-        <v>2</v>
-      </c>
-      <c r="F815" s="8">
-        <v>1</v>
-      </c>
-      <c r="G815" s="10" t="s">
-        <v>1724</v>
       </c>
       <c r="H815" s="8"/>
       <c r="I815" s="8"/>
@@ -46883,7 +46883,7 @@
         <v>1043</v>
       </c>
       <c r="D816" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E816" s="8">
         <v>5</v>
@@ -46892,7 +46892,7 @@
         <v>1</v>
       </c>
       <c r="G816" s="10" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H816" s="8"/>
       <c r="I816" s="8"/>
@@ -46908,7 +46908,7 @@
         <v>863</v>
       </c>
       <c r="D817" s="10" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E817" s="8">
         <v>2</v>
@@ -46933,7 +46933,7 @@
         <v>1043</v>
       </c>
       <c r="D818" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E818" s="8">
         <v>5</v>
@@ -46942,7 +46942,7 @@
         <v>2</v>
       </c>
       <c r="G818" s="10" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H818" s="8"/>
       <c r="I818" s="8"/>
@@ -46983,7 +46983,7 @@
         <v>1043</v>
       </c>
       <c r="D820" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E820" s="8">
         <v>5</v>
@@ -46992,7 +46992,7 @@
         <v>3</v>
       </c>
       <c r="G820" s="10" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H820" s="8"/>
       <c r="I820" s="8"/>
@@ -47008,7 +47008,7 @@
         <v>1043</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E821" s="9">
         <v>5</v>
@@ -47033,7 +47033,7 @@
         <v>1043</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -47042,7 +47042,7 @@
         <v>1</v>
       </c>
       <c r="G822" s="9" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H822" s="8"/>
       <c r="I822" s="8"/>
@@ -47058,7 +47058,7 @@
         <v>1043</v>
       </c>
       <c r="D823" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E823" s="14">
         <v>2</v>
@@ -47067,7 +47067,7 @@
         <v>1</v>
       </c>
       <c r="G823" s="15" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H823" s="8"/>
       <c r="I823" s="8"/>
@@ -47083,16 +47083,16 @@
         <v>1043</v>
       </c>
       <c r="D824" s="10" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E824" s="8">
+        <v>2</v>
+      </c>
+      <c r="F824" s="8">
+        <v>2</v>
+      </c>
+      <c r="G824" s="10" t="s">
         <v>1794</v>
-      </c>
-      <c r="E824" s="8">
-        <v>2</v>
-      </c>
-      <c r="F824" s="8">
-        <v>2</v>
-      </c>
-      <c r="G824" s="10" t="s">
-        <v>1795</v>
       </c>
       <c r="H824" s="8"/>
       <c r="I824" s="8"/>
@@ -47108,7 +47108,7 @@
         <v>1043</v>
       </c>
       <c r="D825" s="10" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="E825" s="8">
         <v>2</v>
@@ -47130,10 +47130,10 @@
         <v>328</v>
       </c>
       <c r="C826" s="53" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D826" s="9" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E826" s="9">
         <v>5</v>
@@ -47142,7 +47142,7 @@
         <v>1</v>
       </c>
       <c r="G826" s="9" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H826" s="8"/>
       <c r="I826" s="8"/>
@@ -47158,7 +47158,7 @@
         <v>1043</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E827" s="9">
         <v>5</v>
@@ -47167,7 +47167,7 @@
         <v>1</v>
       </c>
       <c r="G827" s="53" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="H827" s="8"/>
       <c r="I827" s="8"/>
@@ -47183,7 +47183,7 @@
         <v>895</v>
       </c>
       <c r="D828" s="9" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E828" s="9">
         <v>5</v>
@@ -47192,7 +47192,7 @@
         <v>1</v>
       </c>
       <c r="G828" s="9" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H828" s="8"/>
       <c r="I828" s="8"/>
@@ -47208,7 +47208,7 @@
         <v>1043</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -47217,7 +47217,7 @@
         <v>1</v>
       </c>
       <c r="G829" s="53" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H829" s="8"/>
       <c r="I829" s="8"/>
@@ -47267,7 +47267,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="107" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="H831" s="8"/>
       <c r="I831" s="8"/>
@@ -47292,7 +47292,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="107" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H832" s="8"/>
       <c r="I832" s="8"/>
@@ -47317,7 +47317,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="10" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="H833" s="8"/>
       <c r="I833" s="8"/>
@@ -47333,7 +47333,7 @@
         <v>1043</v>
       </c>
       <c r="D834" s="9" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E834" s="9">
         <v>5</v>
@@ -47342,7 +47342,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H834" s="8"/>
       <c r="I834" s="8"/>
@@ -47383,7 +47383,7 @@
         <v>1043</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -47392,7 +47392,7 @@
         <v>1</v>
       </c>
       <c r="G836" s="9" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H836" s="8"/>
       <c r="I836" s="8"/>
@@ -47433,7 +47433,7 @@
         <v>1043</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E838" s="9">
         <v>2</v>
@@ -47442,7 +47442,7 @@
         <v>1</v>
       </c>
       <c r="G838" s="9" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H838" s="8"/>
       <c r="I838" s="8"/>
@@ -47455,10 +47455,10 @@
         <v>336</v>
       </c>
       <c r="C839" s="89" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D839" s="90" t="s">
         <v>1825</v>
-      </c>
-      <c r="D839" s="90" t="s">
-        <v>1826</v>
       </c>
       <c r="E839" s="89">
         <v>5</v>
@@ -47467,7 +47467,7 @@
         <v>1</v>
       </c>
       <c r="G839" s="90" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H839" s="8"/>
       <c r="I839" s="8"/>
@@ -47483,7 +47483,7 @@
         <v>1043</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E840" s="9">
         <v>5</v>
@@ -47492,7 +47492,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="9" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H840" s="8"/>
       <c r="I840" s="8"/>
@@ -47508,16 +47508,16 @@
         <v>1043</v>
       </c>
       <c r="D841" s="98" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E841" s="97">
+        <v>2</v>
+      </c>
+      <c r="F841" s="97">
+        <v>1</v>
+      </c>
+      <c r="G841" s="98" t="s">
         <v>1836</v>
-      </c>
-      <c r="E841" s="97">
-        <v>2</v>
-      </c>
-      <c r="F841" s="97">
-        <v>1</v>
-      </c>
-      <c r="G841" s="98" t="s">
-        <v>1837</v>
       </c>
       <c r="H841" s="8"/>
       <c r="I841" s="8"/>
@@ -47542,7 +47542,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="98" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="H842" s="8"/>
       <c r="I842" s="8"/>
@@ -47567,7 +47567,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="97" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="H843" s="8"/>
       <c r="I843" s="8"/>
@@ -47583,7 +47583,7 @@
         <v>1043</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E844" s="14">
         <v>5</v>
@@ -47592,7 +47592,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="14" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="H844" s="8"/>
       <c r="I844" s="8"/>
@@ -47605,19 +47605,19 @@
         <v>339</v>
       </c>
       <c r="C845" s="10" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D845" s="10" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E845" s="8">
+        <v>2</v>
+      </c>
+      <c r="F845" s="8">
+        <v>1</v>
+      </c>
+      <c r="G845" s="10" t="s">
         <v>1855</v>
-      </c>
-      <c r="D845" s="10" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E845" s="8">
-        <v>2</v>
-      </c>
-      <c r="F845" s="8">
-        <v>1</v>
-      </c>
-      <c r="G845" s="10" t="s">
-        <v>1856</v>
       </c>
       <c r="H845" s="8" t="s">
         <v>870</v>
@@ -47637,7 +47637,7 @@
         <v>1157</v>
       </c>
       <c r="D846" s="10" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E846" s="8">
         <v>5</v>
@@ -47646,7 +47646,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="10" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="H846" s="8"/>
       <c r="I846" s="8"/>
@@ -47662,7 +47662,7 @@
         <v>1157</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E847" s="8">
         <v>2</v>
@@ -47671,7 +47671,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H847" s="8" t="s">
         <v>874</v>
@@ -47691,16 +47691,16 @@
         <v>1043</v>
       </c>
       <c r="D848" s="102" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E848" s="101">
+        <v>2</v>
+      </c>
+      <c r="F848" s="101">
+        <v>1</v>
+      </c>
+      <c r="G848" s="102" t="s">
         <v>1907</v>
-      </c>
-      <c r="E848" s="101">
-        <v>2</v>
-      </c>
-      <c r="F848" s="101">
-        <v>1</v>
-      </c>
-      <c r="G848" s="102" t="s">
-        <v>1908</v>
       </c>
       <c r="H848" s="8"/>
       <c r="I848" s="8"/>
@@ -47725,7 +47725,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="102" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H849" s="8"/>
       <c r="I849" s="8"/>
@@ -47741,7 +47741,7 @@
         <v>1043</v>
       </c>
       <c r="D850" s="102" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E850" s="101">
         <v>2</v>
@@ -47750,7 +47750,7 @@
         <v>2</v>
       </c>
       <c r="G850" s="102" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H850" s="8"/>
       <c r="I850" s="8"/>
@@ -47775,7 +47775,7 @@
         <v>2</v>
       </c>
       <c r="G851" s="102" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
@@ -47791,7 +47791,7 @@
         <v>1043</v>
       </c>
       <c r="D852" s="102" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="E852" s="101">
         <v>2</v>
@@ -47800,7 +47800,7 @@
         <v>3</v>
       </c>
       <c r="G852" s="102" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
@@ -47825,7 +47825,7 @@
         <v>3</v>
       </c>
       <c r="G853" s="102" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H853" s="8"/>
       <c r="I853" s="8"/>
@@ -47841,7 +47841,7 @@
         <v>1043</v>
       </c>
       <c r="D854" s="101" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E854" s="101">
         <v>2</v>
@@ -47850,7 +47850,7 @@
         <v>4</v>
       </c>
       <c r="G854" s="102" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
@@ -47875,7 +47875,7 @@
         <v>4</v>
       </c>
       <c r="G855" s="102" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="856" spans="1:9" s="8" customFormat="1">
@@ -47886,7 +47886,7 @@
         <v>343</v>
       </c>
       <c r="C856" s="53" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D856" s="9">
         <v>1</v>
@@ -47898,7 +47898,7 @@
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="857" spans="1:9" s="8" customFormat="1">
@@ -47909,10 +47909,10 @@
         <v>343</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D857" s="15" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E857" s="8">
         <v>5</v>
@@ -47921,7 +47921,7 @@
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="858" spans="1:9" s="101" customFormat="1">
@@ -47932,7 +47932,7 @@
         <v>343</v>
       </c>
       <c r="C858" s="53" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D858" s="9">
         <v>9</v>
@@ -47944,7 +47944,7 @@
         <v>2</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="H858" s="8"/>
       <c r="I858" s="8"/>
@@ -47960,7 +47960,7 @@
         <v>1157</v>
       </c>
       <c r="D859" s="15" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E859" s="8">
         <v>5</v>
@@ -47969,7 +47969,7 @@
         <v>2</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H859" s="8"/>
       <c r="I859" s="8"/>
@@ -47985,7 +47985,7 @@
         <v>1157</v>
       </c>
       <c r="D860" s="15" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E860" s="14">
         <v>2</v>
@@ -47994,7 +47994,7 @@
         <v>3</v>
       </c>
       <c r="G860" s="15" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
@@ -48010,7 +48010,7 @@
         <v>1157</v>
       </c>
       <c r="D861" s="15" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E861" s="14">
         <v>2</v>
@@ -48019,7 +48019,7 @@
         <v>4</v>
       </c>
       <c r="G861" s="15" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
@@ -48035,7 +48035,7 @@
         <v>863</v>
       </c>
       <c r="D862" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E862" s="8">
         <v>5</v>
@@ -48085,7 +48085,7 @@
         <v>1043</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E864" s="8">
         <v>2</v>
@@ -48135,7 +48135,7 @@
         <v>863</v>
       </c>
       <c r="D866" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E866" s="8">
         <v>2</v>
@@ -48185,7 +48185,7 @@
         <v>1043</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E868" s="8">
         <v>2</v>
@@ -48235,7 +48235,7 @@
         <v>1153</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E870" s="8">
         <v>2</v>
@@ -48244,7 +48244,7 @@
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
@@ -48260,7 +48260,7 @@
         <v>1043</v>
       </c>
       <c r="D871" s="9" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E871" s="9">
         <v>2</v>
@@ -48269,7 +48269,7 @@
         <v>2</v>
       </c>
       <c r="G871" s="53" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
@@ -48285,7 +48285,7 @@
         <v>1043</v>
       </c>
       <c r="D872" s="53" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E872" s="9">
         <v>2</v>
@@ -48294,7 +48294,7 @@
         <v>3</v>
       </c>
       <c r="G872" s="53" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="873" spans="1:9" s="8" customFormat="1">
@@ -48308,7 +48308,7 @@
         <v>1043</v>
       </c>
       <c r="D873" s="53" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E873" s="9">
         <v>2</v>
@@ -48317,7 +48317,7 @@
         <v>4</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
@@ -48331,7 +48331,7 @@
         <v>1157</v>
       </c>
       <c r="D874" s="15" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
@@ -48340,7 +48340,7 @@
         <v>1</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="8" customFormat="1">
@@ -48354,7 +48354,7 @@
         <v>1153</v>
       </c>
       <c r="D875" s="15" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E875" s="8">
         <v>5</v>
@@ -48363,7 +48363,7 @@
         <v>1</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="876" spans="1:9" s="8" customFormat="1">
@@ -48386,7 +48386,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="8" customFormat="1">
@@ -48400,7 +48400,7 @@
         <v>1157</v>
       </c>
       <c r="D877" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -48423,7 +48423,7 @@
         <v>1153</v>
       </c>
       <c r="D878" s="15" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E878" s="8">
         <v>5</v>
@@ -48432,7 +48432,7 @@
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -48446,7 +48446,7 @@
         <v>1153</v>
       </c>
       <c r="D879" s="15" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E879" s="8">
         <v>2</v>
@@ -48455,7 +48455,7 @@
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="880" spans="1:9">
@@ -48466,7 +48466,7 @@
         <v>352</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D880" s="15" t="s">
         <v>1611</v>
@@ -48478,7 +48478,7 @@
         <v>2</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="H880" s="8"/>
       <c r="I880" s="8"/>
@@ -48494,7 +48494,7 @@
         <v>1153</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -48503,7 +48503,7 @@
         <v>3</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H881" s="8"/>
       <c r="I881" s="8"/>
@@ -48516,19 +48516,19 @@
         <v>353</v>
       </c>
       <c r="C882" s="10" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D882" s="15" t="s">
         <v>1961</v>
       </c>
-      <c r="D882" s="15" t="s">
+      <c r="E882" s="8">
+        <v>2</v>
+      </c>
+      <c r="F882" s="8">
+        <v>1</v>
+      </c>
+      <c r="G882" s="10" t="s">
         <v>1962</v>
-      </c>
-      <c r="E882" s="8">
-        <v>2</v>
-      </c>
-      <c r="F882" s="8">
-        <v>1</v>
-      </c>
-      <c r="G882" s="10" t="s">
-        <v>1963</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -48544,7 +48544,7 @@
         <v>1153</v>
       </c>
       <c r="D883" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E883" s="8">
         <v>5</v>
@@ -48553,7 +48553,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -48569,7 +48569,7 @@
         <v>1043</v>
       </c>
       <c r="D884" s="10" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E884" s="8">
         <v>5</v>
@@ -48603,7 +48603,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -48619,7 +48619,7 @@
         <v>1153</v>
       </c>
       <c r="D886" s="15" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E886" s="14">
         <v>2</v>
@@ -48653,7 +48653,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -48669,7 +48669,7 @@
         <v>1153</v>
       </c>
       <c r="D888" s="15" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E888" s="14">
         <v>2</v>
@@ -48694,7 +48694,7 @@
         <v>1153</v>
       </c>
       <c r="D889" s="53" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E889" s="9">
         <v>5</v>
@@ -48703,7 +48703,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -48728,7 +48728,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -48744,7 +48744,7 @@
         <v>1153</v>
       </c>
       <c r="D891" s="53" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E891" s="9">
         <v>5</v>
@@ -48753,7 +48753,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -48778,7 +48778,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -48803,7 +48803,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -48817,7 +48817,7 @@
         <v>1153</v>
       </c>
       <c r="D894" s="53" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E894" s="9">
         <v>5</v>
@@ -48826,7 +48826,7 @@
         <v>1</v>
       </c>
       <c r="G894" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -48851,7 +48851,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -48876,7 +48876,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -48892,7 +48892,7 @@
         <v>1153</v>
       </c>
       <c r="D897" s="53" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E897" s="9">
         <v>5</v>
@@ -48901,7 +48901,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -48926,7 +48926,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -48942,16 +48942,16 @@
         <v>1153</v>
       </c>
       <c r="D899" s="15" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E899" s="14">
+        <v>2</v>
+      </c>
+      <c r="F899" s="14">
+        <v>1</v>
+      </c>
+      <c r="G899" s="15" t="s">
         <v>1973</v>
-      </c>
-      <c r="E899" s="14">
-        <v>2</v>
-      </c>
-      <c r="F899" s="14">
-        <v>1</v>
-      </c>
-      <c r="G899" s="15" t="s">
-        <v>1974</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -48976,7 +48976,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="15" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -48992,16 +48992,16 @@
         <v>1153</v>
       </c>
       <c r="D901" s="15" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E901" s="14">
+        <v>2</v>
+      </c>
+      <c r="F901" s="14">
+        <v>1</v>
+      </c>
+      <c r="G901" s="15" t="s">
         <v>1973</v>
-      </c>
-      <c r="E901" s="14">
-        <v>2</v>
-      </c>
-      <c r="F901" s="14">
-        <v>1</v>
-      </c>
-      <c r="G901" s="15" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
@@ -49024,7 +49024,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="15" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -49047,7 +49047,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="15" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -49061,16 +49061,16 @@
         <v>1153</v>
       </c>
       <c r="D904" s="15" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E904" s="14">
+        <v>2</v>
+      </c>
+      <c r="F904" s="14">
+        <v>1</v>
+      </c>
+      <c r="G904" s="15" t="s">
         <v>1973</v>
-      </c>
-      <c r="E904" s="14">
-        <v>2</v>
-      </c>
-      <c r="F904" s="14">
-        <v>1</v>
-      </c>
-      <c r="G904" s="15" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -49093,7 +49093,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="15" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -49116,7 +49116,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="15" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -49130,16 +49130,16 @@
         <v>1153</v>
       </c>
       <c r="D907" s="15" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E907" s="14">
+        <v>2</v>
+      </c>
+      <c r="F907" s="14">
+        <v>1</v>
+      </c>
+      <c r="G907" s="15" t="s">
         <v>1973</v>
-      </c>
-      <c r="E907" s="14">
-        <v>2</v>
-      </c>
-      <c r="F907" s="14">
-        <v>1</v>
-      </c>
-      <c r="G907" s="15" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -49162,7 +49162,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="15" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -49176,7 +49176,7 @@
         <v>1153</v>
       </c>
       <c r="D909" s="15" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E909" s="14">
         <v>2</v>
@@ -49185,7 +49185,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="15" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -49208,7 +49208,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -49222,7 +49222,7 @@
         <v>1153</v>
       </c>
       <c r="D911" s="15" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E911" s="14">
         <v>2</v>
@@ -49231,7 +49231,7 @@
         <v>2</v>
       </c>
       <c r="G911" s="15" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -49254,7 +49254,7 @@
         <v>2</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -49277,7 +49277,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -49300,7 +49300,7 @@
         <v>1</v>
       </c>
       <c r="G914" s="15" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -49314,7 +49314,7 @@
         <v>1043</v>
       </c>
       <c r="D915" s="8" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E915" s="8">
         <v>5</v>
@@ -49323,7 +49323,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="8" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="8" customFormat="1">
@@ -49337,7 +49337,7 @@
         <v>1153</v>
       </c>
       <c r="D916" s="15" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E916" s="14">
         <v>2</v>
@@ -49346,7 +49346,7 @@
         <v>1</v>
       </c>
       <c r="G916" s="15" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="8" customFormat="1">
@@ -49357,19 +49357,19 @@
         <v>368</v>
       </c>
       <c r="C917" s="15" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D917" s="15" t="s">
         <v>2001</v>
       </c>
-      <c r="D917" s="15" t="s">
+      <c r="E917" s="14">
+        <v>2</v>
+      </c>
+      <c r="F917" s="14">
+        <v>2</v>
+      </c>
+      <c r="G917" s="15" t="s">
         <v>2002</v>
-      </c>
-      <c r="E917" s="14">
-        <v>2</v>
-      </c>
-      <c r="F917" s="14">
-        <v>2</v>
-      </c>
-      <c r="G917" s="15" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="8" customFormat="1">
@@ -49383,7 +49383,7 @@
         <v>1153</v>
       </c>
       <c r="D918" s="15" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E918" s="14">
         <v>2</v>
@@ -49392,7 +49392,7 @@
         <v>1</v>
       </c>
       <c r="G918" s="15" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="8" customFormat="1">
@@ -49406,7 +49406,7 @@
         <v>1153</v>
       </c>
       <c r="D919" s="15" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E919" s="14">
         <v>5</v>
@@ -49415,7 +49415,7 @@
         <v>2</v>
       </c>
       <c r="G919" s="15" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="8" customFormat="1">
@@ -49429,7 +49429,7 @@
         <v>1153</v>
       </c>
       <c r="D920" s="95" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E920" s="94">
         <v>5</v>
@@ -49438,7 +49438,7 @@
         <v>1</v>
       </c>
       <c r="G920" s="95" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="8" customFormat="1">
@@ -49452,7 +49452,7 @@
         <v>1153</v>
       </c>
       <c r="D921" s="95" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E921" s="94">
         <v>2</v>
@@ -49461,7 +49461,7 @@
         <v>1</v>
       </c>
       <c r="G921" s="95" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="922" spans="1:7">
@@ -49475,7 +49475,7 @@
         <v>1153</v>
       </c>
       <c r="D922" s="95" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E922" s="94">
         <v>5</v>
@@ -49484,7 +49484,7 @@
         <v>1</v>
       </c>
       <c r="G922" s="95" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="923" spans="1:7">
@@ -49498,7 +49498,7 @@
         <v>1153</v>
       </c>
       <c r="D923" s="95" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E923" s="94">
         <v>2</v>
@@ -49507,7 +49507,7 @@
         <v>1</v>
       </c>
       <c r="G923" s="95" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="924" spans="1:7" s="8" customFormat="1">
@@ -49518,10 +49518,10 @@
         <v>374</v>
       </c>
       <c r="C924" s="15" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D924" s="15" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E924" s="14">
         <v>5</v>
@@ -49530,7 +49530,7 @@
         <v>1</v>
       </c>
       <c r="G924" s="15" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="925" spans="1:7" s="8" customFormat="1">
@@ -49541,7 +49541,7 @@
         <v>375</v>
       </c>
       <c r="C925" s="15" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D925" s="15" t="s">
         <v>1611</v>
@@ -49553,7 +49553,7 @@
         <v>1</v>
       </c>
       <c r="G925" s="15" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="926" spans="1:7" s="8" customFormat="1">
@@ -49564,10 +49564,10 @@
         <v>375</v>
       </c>
       <c r="C926" s="15" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D926" s="15" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="E926" s="14">
         <v>2</v>
@@ -49576,7 +49576,7 @@
         <v>2</v>
       </c>
       <c r="G926" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="927" spans="1:7" s="8" customFormat="1">
@@ -49587,10 +49587,10 @@
         <v>376</v>
       </c>
       <c r="C927" s="15" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D927" s="15" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E927" s="14">
         <v>2</v>
@@ -49599,7 +49599,7 @@
         <v>1</v>
       </c>
       <c r="G927" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="928" spans="1:7" s="8" customFormat="1">
@@ -49610,10 +49610,10 @@
         <v>377</v>
       </c>
       <c r="C928" s="15" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D928" s="15" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E928" s="14">
         <v>2</v>
@@ -49622,7 +49622,7 @@
         <v>1</v>
       </c>
       <c r="G928" s="15" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="929" spans="1:7" s="8" customFormat="1">
@@ -49633,10 +49633,10 @@
         <v>378</v>
       </c>
       <c r="C929" s="15" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D929" s="15" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E929" s="14">
         <v>2</v>
@@ -49645,7 +49645,7 @@
         <v>1</v>
       </c>
       <c r="G929" s="15" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="930" spans="1:7" s="8" customFormat="1">
@@ -49659,7 +49659,7 @@
         <v>1154</v>
       </c>
       <c r="D930" s="15" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E930" s="14">
         <v>2</v>
@@ -49668,7 +49668,7 @@
         <v>1</v>
       </c>
       <c r="G930" s="15" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="931" spans="1:7" s="8" customFormat="1">
@@ -49691,7 +49691,7 @@
         <v>1</v>
       </c>
       <c r="G931" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="932" spans="1:7">
@@ -49705,7 +49705,7 @@
         <v>1043</v>
       </c>
       <c r="D932" s="94" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E932" s="94">
         <v>5</v>
@@ -49714,7 +49714,7 @@
         <v>1</v>
       </c>
       <c r="G932" s="94" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="933" spans="1:7" ht="16.5">
@@ -49725,19 +49725,19 @@
         <v>380</v>
       </c>
       <c r="C933" s="94" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D933" s="113" t="s">
         <v>2049</v>
       </c>
-      <c r="D933" s="113" t="s">
+      <c r="E933" s="94">
+        <v>2</v>
+      </c>
+      <c r="F933" s="94">
+        <v>1</v>
+      </c>
+      <c r="G933" s="94" t="s">
         <v>2050</v>
-      </c>
-      <c r="E933" s="94">
-        <v>2</v>
-      </c>
-      <c r="F933" s="94">
-        <v>1</v>
-      </c>
-      <c r="G933" s="94" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="934" spans="1:7">
@@ -49751,7 +49751,7 @@
         <v>1043</v>
       </c>
       <c r="D934" s="94" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E934" s="94">
         <v>2</v>
@@ -49760,7 +49760,7 @@
         <v>2</v>
       </c>
       <c r="G934" s="95" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="935" spans="1:7">
@@ -49771,19 +49771,19 @@
         <v>380</v>
       </c>
       <c r="C935" s="94" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D935" s="95" t="s">
         <v>2053</v>
       </c>
-      <c r="D935" s="95" t="s">
+      <c r="E935" s="94">
+        <v>2</v>
+      </c>
+      <c r="F935" s="94">
+        <v>2</v>
+      </c>
+      <c r="G935" s="94" t="s">
         <v>2054</v>
-      </c>
-      <c r="E935" s="94">
-        <v>2</v>
-      </c>
-      <c r="F935" s="94">
-        <v>2</v>
-      </c>
-      <c r="G935" s="94" t="s">
-        <v>2055</v>
       </c>
     </row>
     <row r="936" spans="1:7" s="8" customFormat="1">
@@ -49806,7 +49806,7 @@
         <v>1</v>
       </c>
       <c r="G936" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="937" spans="1:7">
@@ -49852,7 +49852,7 @@
         <v>2</v>
       </c>
       <c r="G938" s="118" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="939" spans="1:7">
@@ -49875,7 +49875,7 @@
         <v>3</v>
       </c>
       <c r="G939" s="118" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="940" spans="1:7">
@@ -49898,7 +49898,7 @@
         <v>1</v>
       </c>
       <c r="G940" s="45" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="941" spans="1:7">
@@ -49921,7 +49921,7 @@
         <v>1</v>
       </c>
       <c r="G941" s="45" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="942" spans="1:7">
@@ -49944,7 +49944,7 @@
         <v>1</v>
       </c>
       <c r="G942" s="45" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="943" spans="1:7">
@@ -49967,7 +49967,7 @@
         <v>1</v>
       </c>
       <c r="G943" s="118" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="944" spans="1:7">
@@ -49990,7 +49990,7 @@
         <v>1</v>
       </c>
       <c r="G944" s="118" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="945" spans="1:7">
@@ -50013,7 +50013,7 @@
         <v>1</v>
       </c>
       <c r="G945" s="118" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="946" spans="1:7" s="8" customFormat="1">
@@ -50036,7 +50036,7 @@
         <v>1</v>
       </c>
       <c r="G946" s="15" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="947" spans="1:7" s="8" customFormat="1">
@@ -50047,7 +50047,7 @@
         <v>386</v>
       </c>
       <c r="C947" s="15" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D947" s="15">
         <v>1</v>
@@ -50059,7 +50059,7 @@
         <v>1</v>
       </c>
       <c r="G947" s="15" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
   </sheetData>
@@ -50192,7 +50192,7 @@
         <v>895</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -50209,13 +50209,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -50235,7 +50235,7 @@
         <v>1611</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1606</v>
@@ -50261,7 +50261,7 @@
         <v>895</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -50278,13 +50278,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -50293,7 +50293,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -50301,13 +50301,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -50316,7 +50316,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -50324,13 +50324,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -50339,7 +50339,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
   </sheetData>
@@ -50432,7 +50432,7 @@
         <v>863</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/config_1.26/permission_server_config.xlsx
+++ b/config_1.26/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="2082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4822" uniqueCount="2085">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9661,6 +9661,18 @@
   </si>
   <si>
     <t>欢乐敲金蛋活动购买礼包（V8-V12，非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非新权限</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是新玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_1000238</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9937,7 +9949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10247,9 +10259,6 @@
     <xf numFmtId="31" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10257,15 +10266,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10273,6 +10273,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10553,8 +10559,8 @@
   <dimension ref="A1:Q463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A466" sqref="A466"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C381" sqref="C381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15330,13 +15336,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O356"/>
+  <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D274" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D328" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G291" sqref="G291"/>
+      <selection pane="bottomRight" activeCell="C357" sqref="C357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -25161,10 +25167,10 @@
       <c r="B289" s="75">
         <v>0</v>
       </c>
-      <c r="C289" s="121" t="s">
+      <c r="C289" s="117" t="s">
         <v>1641</v>
       </c>
-      <c r="D289" s="121" t="s">
+      <c r="D289" s="117" t="s">
         <v>1642</v>
       </c>
       <c r="E289" s="75"/>
@@ -25195,10 +25201,10 @@
       <c r="B290" s="75">
         <v>0</v>
       </c>
-      <c r="C290" s="121" t="s">
+      <c r="C290" s="117" t="s">
         <v>1644</v>
       </c>
-      <c r="D290" s="121" t="s">
+      <c r="D290" s="117" t="s">
         <v>1643</v>
       </c>
       <c r="E290" s="75"/>
@@ -25229,10 +25235,10 @@
       <c r="B291" s="75">
         <v>0</v>
       </c>
-      <c r="C291" s="120" t="s">
+      <c r="C291" s="116" t="s">
         <v>1645</v>
       </c>
-      <c r="D291" s="121" t="s">
+      <c r="D291" s="117" t="s">
         <v>2081</v>
       </c>
       <c r="E291" s="75"/>
@@ -25263,10 +25269,10 @@
       <c r="B292" s="75">
         <v>0</v>
       </c>
-      <c r="C292" s="120" t="s">
+      <c r="C292" s="116" t="s">
         <v>1841</v>
       </c>
-      <c r="D292" s="120" t="s">
+      <c r="D292" s="116" t="s">
         <v>1963</v>
       </c>
       <c r="E292" s="75"/>
@@ -26188,37 +26194,37 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="321" spans="1:12" s="122" customFormat="1">
-      <c r="A321" s="121">
+    <row r="321" spans="1:12" s="118" customFormat="1">
+      <c r="A321" s="117">
         <v>320</v>
       </c>
-      <c r="B321" s="121">
-        <v>1</v>
-      </c>
-      <c r="C321" s="120" t="s">
+      <c r="B321" s="117">
+        <v>1</v>
+      </c>
+      <c r="C321" s="116" t="s">
         <v>1726</v>
       </c>
-      <c r="D321" s="120" t="s">
+      <c r="D321" s="116" t="s">
         <v>2079</v>
       </c>
-      <c r="E321" s="121"/>
-      <c r="F321" s="121"/>
-      <c r="G321" s="121">
+      <c r="E321" s="117"/>
+      <c r="F321" s="117"/>
+      <c r="G321" s="117">
         <v>325</v>
       </c>
-      <c r="H321" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="I321" s="122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J321" s="120" t="s">
+      <c r="H321" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="I321" s="118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" s="116" t="s">
         <v>1127</v>
       </c>
-      <c r="K321" s="121">
+      <c r="K321" s="117">
         <v>1601335800</v>
       </c>
-      <c r="L321" s="120" t="s">
+      <c r="L321" s="116" t="s">
         <v>1715</v>
       </c>
     </row>
@@ -26357,10 +26363,10 @@
       <c r="B326" s="26">
         <v>0</v>
       </c>
-      <c r="C326" s="120" t="s">
+      <c r="C326" s="116" t="s">
         <v>1784</v>
       </c>
-      <c r="D326" s="120" t="s">
+      <c r="D326" s="116" t="s">
         <v>1783</v>
       </c>
       <c r="G326" s="26">
@@ -26389,10 +26395,10 @@
       <c r="B327" s="26">
         <v>0</v>
       </c>
-      <c r="C327" s="120" t="s">
+      <c r="C327" s="116" t="s">
         <v>1785</v>
       </c>
-      <c r="D327" s="120" t="s">
+      <c r="D327" s="116" t="s">
         <v>1778</v>
       </c>
       <c r="G327" s="26">
@@ -27071,10 +27077,10 @@
       <c r="B348" s="17">
         <v>1</v>
       </c>
-      <c r="C348" s="120" t="s">
+      <c r="C348" s="116" t="s">
         <v>1995</v>
       </c>
-      <c r="D348" s="120" t="s">
+      <c r="D348" s="116" t="s">
         <v>2078</v>
       </c>
       <c r="E348" s="17"/>
@@ -27275,30 +27281,30 @@
       <c r="B354" s="17">
         <v>1</v>
       </c>
-      <c r="C354" s="114" t="s">
+      <c r="C354" s="113" t="s">
         <v>2058</v>
       </c>
-      <c r="D354" s="114" t="s">
+      <c r="D354" s="113" t="s">
         <v>2059</v>
       </c>
-      <c r="E354" s="115"/>
-      <c r="F354" s="115"/>
-      <c r="G354" s="115">
+      <c r="E354" s="114"/>
+      <c r="F354" s="114"/>
+      <c r="G354" s="114">
         <v>382</v>
       </c>
-      <c r="H354" s="115" t="b">
+      <c r="H354" s="114" t="b">
         <v>0</v>
       </c>
-      <c r="I354" s="116" t="b">
+      <c r="I354" s="115" t="b">
         <v>0</v>
       </c>
-      <c r="J354" s="115" t="s">
+      <c r="J354" s="114" t="s">
         <v>466</v>
       </c>
-      <c r="K354" s="115">
+      <c r="K354" s="114">
         <v>1611014400</v>
       </c>
-      <c r="L354" s="114" t="s">
+      <c r="L354" s="113" t="s">
         <v>2060</v>
       </c>
     </row>
@@ -27309,30 +27315,30 @@
       <c r="B355" s="17">
         <v>1</v>
       </c>
-      <c r="C355" s="114" t="s">
+      <c r="C355" s="113" t="s">
         <v>2061</v>
       </c>
-      <c r="D355" s="114" t="s">
+      <c r="D355" s="113" t="s">
         <v>2062</v>
       </c>
-      <c r="E355" s="115"/>
-      <c r="F355" s="115"/>
-      <c r="G355" s="115">
+      <c r="E355" s="114"/>
+      <c r="F355" s="114"/>
+      <c r="G355" s="114">
         <v>383</v>
       </c>
-      <c r="H355" s="115" t="b">
+      <c r="H355" s="114" t="b">
         <v>0</v>
       </c>
-      <c r="I355" s="116" t="b">
+      <c r="I355" s="115" t="b">
         <v>0</v>
       </c>
-      <c r="J355" s="115" t="s">
+      <c r="J355" s="114" t="s">
         <v>466</v>
       </c>
-      <c r="K355" s="115">
+      <c r="K355" s="114">
         <v>1611014400</v>
       </c>
-      <c r="L355" s="114" t="s">
+      <c r="L355" s="113" t="s">
         <v>2063</v>
       </c>
     </row>
@@ -27343,32 +27349,162 @@
       <c r="B356" s="17">
         <v>1</v>
       </c>
-      <c r="C356" s="114" t="s">
+      <c r="C356" s="113" t="s">
         <v>2064</v>
       </c>
-      <c r="D356" s="114" t="s">
+      <c r="D356" s="113" t="s">
         <v>2065</v>
       </c>
-      <c r="E356" s="115"/>
-      <c r="F356" s="115"/>
-      <c r="G356" s="115">
+      <c r="E356" s="114"/>
+      <c r="F356" s="114"/>
+      <c r="G356" s="114">
         <v>384</v>
       </c>
-      <c r="H356" s="115" t="b">
+      <c r="H356" s="114" t="b">
         <v>0</v>
       </c>
-      <c r="I356" s="116" t="b">
+      <c r="I356" s="115" t="b">
         <v>0</v>
       </c>
-      <c r="J356" s="115" t="s">
+      <c r="J356" s="114" t="s">
         <v>466</v>
       </c>
-      <c r="K356" s="115">
+      <c r="K356" s="114">
         <v>1611014400</v>
       </c>
-      <c r="L356" s="114" t="s">
+      <c r="L356" s="113" t="s">
         <v>2060</v>
       </c>
+    </row>
+    <row r="357" spans="1:12">
+      <c r="A357" s="17">
+        <v>356</v>
+      </c>
+      <c r="B357" s="117">
+        <v>1</v>
+      </c>
+      <c r="C357" s="120" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D357" s="117" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E357" s="117"/>
+      <c r="F357" s="117"/>
+      <c r="G357" s="117">
+        <v>387</v>
+      </c>
+      <c r="H357" s="118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I357" s="118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J357" s="117" t="s">
+        <v>466</v>
+      </c>
+      <c r="K357" s="117">
+        <v>1588028400</v>
+      </c>
+      <c r="L357" s="116" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" s="22" customFormat="1">
+      <c r="A358" s="17"/>
+      <c r="B358" s="17"/>
+      <c r="C358" s="17"/>
+      <c r="D358" s="16"/>
+      <c r="E358" s="17"/>
+      <c r="F358" s="17"/>
+      <c r="G358" s="17"/>
+      <c r="J358" s="17"/>
+      <c r="K358" s="17"/>
+      <c r="L358" s="16"/>
+    </row>
+    <row r="359" spans="1:12" s="22" customFormat="1">
+      <c r="A359" s="17"/>
+      <c r="B359" s="17"/>
+      <c r="C359" s="17"/>
+      <c r="D359" s="16"/>
+      <c r="E359" s="17"/>
+      <c r="F359" s="17"/>
+      <c r="G359" s="17"/>
+      <c r="J359" s="17"/>
+      <c r="K359" s="17"/>
+      <c r="L359" s="16"/>
+    </row>
+    <row r="360" spans="1:12" s="22" customFormat="1">
+      <c r="A360" s="17"/>
+      <c r="B360" s="17"/>
+      <c r="C360" s="17"/>
+      <c r="D360" s="16"/>
+      <c r="E360" s="17"/>
+      <c r="F360" s="17"/>
+      <c r="G360" s="17"/>
+      <c r="J360" s="17"/>
+      <c r="K360" s="17"/>
+      <c r="L360" s="16"/>
+    </row>
+    <row r="361" spans="1:12" s="22" customFormat="1">
+      <c r="A361" s="17"/>
+      <c r="B361" s="17"/>
+      <c r="C361" s="17"/>
+      <c r="D361" s="16"/>
+      <c r="E361" s="17"/>
+      <c r="F361" s="17"/>
+      <c r="G361" s="17"/>
+      <c r="J361" s="17"/>
+      <c r="K361" s="17"/>
+      <c r="L361" s="16"/>
+    </row>
+    <row r="362" spans="1:12" s="22" customFormat="1">
+      <c r="A362" s="17"/>
+      <c r="B362" s="17"/>
+      <c r="C362" s="16"/>
+      <c r="D362" s="16"/>
+      <c r="E362" s="17"/>
+      <c r="F362" s="17"/>
+      <c r="G362" s="17"/>
+      <c r="J362" s="17"/>
+      <c r="K362" s="17"/>
+      <c r="L362" s="16"/>
+    </row>
+    <row r="363" spans="1:12" s="22" customFormat="1">
+      <c r="A363" s="17"/>
+      <c r="B363" s="17"/>
+      <c r="C363" s="16"/>
+      <c r="D363" s="16"/>
+      <c r="E363" s="17"/>
+      <c r="F363" s="17"/>
+      <c r="G363" s="17"/>
+      <c r="J363" s="17"/>
+      <c r="K363" s="17"/>
+      <c r="L363" s="16"/>
+    </row>
+    <row r="364" spans="1:12" s="22" customFormat="1">
+      <c r="A364" s="17"/>
+      <c r="B364" s="17"/>
+      <c r="C364" s="16"/>
+      <c r="D364" s="16"/>
+      <c r="E364" s="17"/>
+      <c r="F364" s="17"/>
+      <c r="G364" s="17"/>
+      <c r="J364" s="17"/>
+      <c r="K364" s="17"/>
+      <c r="L364" s="16"/>
+    </row>
+    <row r="365" spans="1:12" s="22" customFormat="1">
+      <c r="A365" s="17"/>
+      <c r="B365" s="17"/>
+      <c r="C365" s="16"/>
+      <c r="D365" s="16"/>
+      <c r="E365" s="17"/>
+      <c r="F365" s="17"/>
+      <c r="G365" s="17"/>
+      <c r="J365" s="17"/>
+      <c r="K365" s="17"/>
+      <c r="L365" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N224"/>
@@ -27381,13 +27517,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I947"/>
+  <dimension ref="A1:I978"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C722" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E933" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E745" sqref="E745"/>
+      <selection pane="bottomRight" activeCell="E950" sqref="E950:E958"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -47911,7 +48047,7 @@
       <c r="C857" s="10" t="s">
         <v>1893</v>
       </c>
-      <c r="D857" s="15" t="s">
+      <c r="D857" s="10" t="s">
         <v>1895</v>
       </c>
       <c r="E857" s="8">
@@ -47928,19 +48064,19 @@
       <c r="A858" s="8">
         <v>857</v>
       </c>
-      <c r="B858" s="9">
+      <c r="B858" s="8">
         <v>343</v>
       </c>
-      <c r="C858" s="53" t="s">
+      <c r="C858" s="10" t="s">
         <v>1900</v>
       </c>
-      <c r="D858" s="9">
+      <c r="D858" s="8">
         <v>9</v>
       </c>
-      <c r="E858" s="9">
+      <c r="E858" s="8">
         <v>3</v>
       </c>
-      <c r="F858" s="9">
+      <c r="F858" s="8">
         <v>2</v>
       </c>
       <c r="G858" s="10" t="s">
@@ -47953,13 +48089,13 @@
       <c r="A859" s="8">
         <v>858</v>
       </c>
-      <c r="B859" s="9">
+      <c r="B859" s="8">
         <v>343</v>
       </c>
       <c r="C859" s="10" t="s">
         <v>1157</v>
       </c>
-      <c r="D859" s="15" t="s">
+      <c r="D859" s="10" t="s">
         <v>1919</v>
       </c>
       <c r="E859" s="8">
@@ -47978,22 +48114,22 @@
       <c r="A860" s="8">
         <v>859</v>
       </c>
-      <c r="B860" s="14">
+      <c r="B860" s="8">
         <v>343</v>
       </c>
-      <c r="C860" s="15" t="s">
+      <c r="C860" s="10" t="s">
         <v>1157</v>
       </c>
-      <c r="D860" s="15" t="s">
+      <c r="D860" s="10" t="s">
         <v>1898</v>
       </c>
-      <c r="E860" s="14">
-        <v>2</v>
-      </c>
-      <c r="F860" s="14">
+      <c r="E860" s="8">
+        <v>2</v>
+      </c>
+      <c r="F860" s="8">
         <v>3</v>
       </c>
-      <c r="G860" s="15" t="s">
+      <c r="G860" s="10" t="s">
         <v>1899</v>
       </c>
       <c r="H860" s="8"/>
@@ -48003,22 +48139,22 @@
       <c r="A861" s="8">
         <v>860</v>
       </c>
-      <c r="B861" s="14">
+      <c r="B861" s="8">
         <v>343</v>
       </c>
-      <c r="C861" s="15" t="s">
+      <c r="C861" s="10" t="s">
         <v>1157</v>
       </c>
-      <c r="D861" s="15" t="s">
+      <c r="D861" s="10" t="s">
         <v>1916</v>
       </c>
-      <c r="E861" s="14">
-        <v>2</v>
-      </c>
-      <c r="F861" s="14">
+      <c r="E861" s="8">
+        <v>2</v>
+      </c>
+      <c r="F861" s="8">
         <v>4</v>
       </c>
-      <c r="G861" s="15" t="s">
+      <c r="G861" s="10" t="s">
         <v>1902</v>
       </c>
       <c r="H861" s="8"/>
@@ -48228,13 +48364,13 @@
       <c r="A870" s="8">
         <v>869</v>
       </c>
-      <c r="B870" s="9">
+      <c r="B870" s="8">
         <v>346</v>
       </c>
       <c r="C870" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D870" s="15" t="s">
+      <c r="D870" s="10" t="s">
         <v>1917</v>
       </c>
       <c r="E870" s="8">
@@ -48253,22 +48389,22 @@
       <c r="A871" s="8">
         <v>870</v>
       </c>
-      <c r="B871" s="9">
+      <c r="B871" s="8">
         <v>346</v>
       </c>
-      <c r="C871" s="9" t="s">
+      <c r="C871" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="D871" s="9" t="s">
+      <c r="D871" s="8" t="s">
         <v>1918</v>
       </c>
-      <c r="E871" s="9">
-        <v>2</v>
-      </c>
-      <c r="F871" s="9">
-        <v>2</v>
-      </c>
-      <c r="G871" s="53" t="s">
+      <c r="E871" s="8">
+        <v>2</v>
+      </c>
+      <c r="F871" s="8">
+        <v>2</v>
+      </c>
+      <c r="G871" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H871" s="8"/>
@@ -48278,22 +48414,22 @@
       <c r="A872" s="8">
         <v>871</v>
       </c>
-      <c r="B872" s="9">
+      <c r="B872" s="8">
         <v>346</v>
       </c>
-      <c r="C872" s="9" t="s">
+      <c r="C872" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="D872" s="53" t="s">
+      <c r="D872" s="10" t="s">
         <v>1920</v>
       </c>
-      <c r="E872" s="9">
-        <v>2</v>
-      </c>
-      <c r="F872" s="9">
+      <c r="E872" s="8">
+        <v>2</v>
+      </c>
+      <c r="F872" s="8">
         <v>3</v>
       </c>
-      <c r="G872" s="53" t="s">
+      <c r="G872" s="10" t="s">
         <v>1925</v>
       </c>
     </row>
@@ -48301,22 +48437,22 @@
       <c r="A873" s="8">
         <v>872</v>
       </c>
-      <c r="B873" s="9">
+      <c r="B873" s="8">
         <v>346</v>
       </c>
-      <c r="C873" s="9" t="s">
+      <c r="C873" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="D873" s="53" t="s">
+      <c r="D873" s="10" t="s">
         <v>1921</v>
       </c>
-      <c r="E873" s="9">
-        <v>2</v>
-      </c>
-      <c r="F873" s="9">
+      <c r="E873" s="8">
+        <v>2</v>
+      </c>
+      <c r="F873" s="8">
         <v>4</v>
       </c>
-      <c r="G873" s="53" t="s">
+      <c r="G873" s="10" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -48324,13 +48460,13 @@
       <c r="A874" s="8">
         <v>873</v>
       </c>
-      <c r="B874" s="9">
+      <c r="B874" s="8">
         <v>347</v>
       </c>
       <c r="C874" s="10" t="s">
         <v>1157</v>
       </c>
-      <c r="D874" s="15" t="s">
+      <c r="D874" s="10" t="s">
         <v>1919</v>
       </c>
       <c r="E874" s="8">
@@ -48347,13 +48483,13 @@
       <c r="A875" s="8">
         <v>874</v>
       </c>
-      <c r="B875" s="9">
+      <c r="B875" s="8">
         <v>348</v>
       </c>
       <c r="C875" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D875" s="15" t="s">
+      <c r="D875" s="10" t="s">
         <v>1919</v>
       </c>
       <c r="E875" s="8">
@@ -48370,13 +48506,13 @@
       <c r="A876" s="8">
         <v>875</v>
       </c>
-      <c r="B876" s="9">
+      <c r="B876" s="8">
         <v>349</v>
       </c>
       <c r="C876" s="10" t="s">
         <v>1157</v>
       </c>
-      <c r="D876" s="15" t="s">
+      <c r="D876" s="10" t="s">
         <v>1611</v>
       </c>
       <c r="E876" s="8">
@@ -48393,13 +48529,13 @@
       <c r="A877" s="8">
         <v>876</v>
       </c>
-      <c r="B877" s="9">
+      <c r="B877" s="8">
         <v>350</v>
       </c>
       <c r="C877" s="10" t="s">
         <v>1157</v>
       </c>
-      <c r="D877" s="15" t="s">
+      <c r="D877" s="10" t="s">
         <v>1829</v>
       </c>
       <c r="E877" s="8">
@@ -48416,13 +48552,13 @@
       <c r="A878" s="8">
         <v>877</v>
       </c>
-      <c r="B878" s="9">
+      <c r="B878" s="8">
         <v>351</v>
       </c>
       <c r="C878" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D878" s="15" t="s">
+      <c r="D878" s="10" t="s">
         <v>1913</v>
       </c>
       <c r="E878" s="8">
@@ -48439,13 +48575,13 @@
       <c r="A879" s="8">
         <v>878</v>
       </c>
-      <c r="B879" s="9">
+      <c r="B879" s="8">
         <v>352</v>
       </c>
       <c r="C879" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D879" s="15" t="s">
+      <c r="D879" s="10" t="s">
         <v>1913</v>
       </c>
       <c r="E879" s="8">
@@ -48462,13 +48598,13 @@
       <c r="A880" s="8">
         <v>879</v>
       </c>
-      <c r="B880" s="9">
+      <c r="B880" s="8">
         <v>352</v>
       </c>
       <c r="C880" s="10" t="s">
         <v>1951</v>
       </c>
-      <c r="D880" s="15" t="s">
+      <c r="D880" s="10" t="s">
         <v>1611</v>
       </c>
       <c r="E880" s="8">
@@ -48487,13 +48623,13 @@
       <c r="A881" s="8">
         <v>880</v>
       </c>
-      <c r="B881" s="9">
+      <c r="B881" s="8">
         <v>352</v>
       </c>
       <c r="C881" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D881" s="15" t="s">
+      <c r="D881" s="10" t="s">
         <v>1829</v>
       </c>
       <c r="E881" s="8">
@@ -48512,13 +48648,13 @@
       <c r="A882" s="8">
         <v>881</v>
       </c>
-      <c r="B882" s="9">
+      <c r="B882" s="8">
         <v>353</v>
       </c>
       <c r="C882" s="10" t="s">
         <v>1960</v>
       </c>
-      <c r="D882" s="15" t="s">
+      <c r="D882" s="10" t="s">
         <v>1961</v>
       </c>
       <c r="E882" s="8">
@@ -48537,13 +48673,13 @@
       <c r="A883" s="8">
         <v>882</v>
       </c>
-      <c r="B883" s="9">
+      <c r="B883" s="8">
         <v>354</v>
       </c>
       <c r="C883" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D883" s="15" t="s">
+      <c r="D883" s="10" t="s">
         <v>1829</v>
       </c>
       <c r="E883" s="8">
@@ -48562,7 +48698,7 @@
       <c r="A884" s="8">
         <v>883</v>
       </c>
-      <c r="B884" s="9">
+      <c r="B884" s="8">
         <v>354</v>
       </c>
       <c r="C884" s="10" t="s">
@@ -48612,22 +48748,22 @@
       <c r="A886" s="8">
         <v>885</v>
       </c>
-      <c r="B886" s="14">
+      <c r="B886" s="8">
         <v>355</v>
       </c>
-      <c r="C886" s="15" t="s">
+      <c r="C886" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D886" s="15" t="s">
+      <c r="D886" s="10" t="s">
         <v>1832</v>
       </c>
-      <c r="E886" s="14">
-        <v>2</v>
-      </c>
-      <c r="F886" s="14">
-        <v>1</v>
-      </c>
-      <c r="G886" s="15" t="s">
+      <c r="E886" s="8">
+        <v>2</v>
+      </c>
+      <c r="F886" s="8">
+        <v>1</v>
+      </c>
+      <c r="G886" s="10" t="s">
         <v>1522</v>
       </c>
       <c r="H886" s="8"/>
@@ -48662,22 +48798,22 @@
       <c r="A888" s="8">
         <v>887</v>
       </c>
-      <c r="B888" s="14">
+      <c r="B888" s="8">
         <v>355</v>
       </c>
-      <c r="C888" s="15" t="s">
+      <c r="C888" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D888" s="15" t="s">
+      <c r="D888" s="10" t="s">
         <v>1928</v>
       </c>
-      <c r="E888" s="14">
-        <v>2</v>
-      </c>
-      <c r="F888" s="14">
-        <v>2</v>
-      </c>
-      <c r="G888" s="15" t="s">
+      <c r="E888" s="8">
+        <v>2</v>
+      </c>
+      <c r="F888" s="8">
+        <v>2</v>
+      </c>
+      <c r="G888" s="10" t="s">
         <v>1522</v>
       </c>
       <c r="H888" s="8"/>
@@ -48687,22 +48823,22 @@
       <c r="A889" s="8">
         <v>888</v>
       </c>
-      <c r="B889" s="9">
+      <c r="B889" s="8">
         <v>356</v>
       </c>
-      <c r="C889" s="15" t="s">
+      <c r="C889" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D889" s="53" t="s">
+      <c r="D889" s="10" t="s">
         <v>1972</v>
       </c>
-      <c r="E889" s="9">
+      <c r="E889" s="8">
         <v>5</v>
       </c>
-      <c r="F889" s="9">
-        <v>1</v>
-      </c>
-      <c r="G889" s="53" t="s">
+      <c r="F889" s="8">
+        <v>1</v>
+      </c>
+      <c r="G889" s="10" t="s">
         <v>1973</v>
       </c>
       <c r="H889" s="8"/>
@@ -48712,22 +48848,22 @@
       <c r="A890" s="8">
         <v>889</v>
       </c>
-      <c r="B890" s="9">
+      <c r="B890" s="8">
         <v>356</v>
       </c>
-      <c r="C890" s="15" t="s">
+      <c r="C890" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D890" s="53">
-        <v>2</v>
-      </c>
-      <c r="E890" s="9">
-        <v>2</v>
-      </c>
-      <c r="F890" s="9">
-        <v>1</v>
-      </c>
-      <c r="G890" s="53" t="s">
+      <c r="D890" s="10">
+        <v>2</v>
+      </c>
+      <c r="E890" s="8">
+        <v>2</v>
+      </c>
+      <c r="F890" s="8">
+        <v>1</v>
+      </c>
+      <c r="G890" s="10" t="s">
         <v>1974</v>
       </c>
       <c r="H890" s="8"/>
@@ -48737,22 +48873,22 @@
       <c r="A891" s="8">
         <v>890</v>
       </c>
-      <c r="B891" s="9">
+      <c r="B891" s="8">
         <v>357</v>
       </c>
-      <c r="C891" s="15" t="s">
+      <c r="C891" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D891" s="53" t="s">
+      <c r="D891" s="10" t="s">
         <v>1972</v>
       </c>
-      <c r="E891" s="9">
+      <c r="E891" s="8">
         <v>5</v>
       </c>
-      <c r="F891" s="9">
-        <v>1</v>
-      </c>
-      <c r="G891" s="53" t="s">
+      <c r="F891" s="8">
+        <v>1</v>
+      </c>
+      <c r="G891" s="10" t="s">
         <v>1973</v>
       </c>
       <c r="H891" s="8"/>
@@ -48762,22 +48898,22 @@
       <c r="A892" s="8">
         <v>891</v>
       </c>
-      <c r="B892" s="9">
+      <c r="B892" s="8">
         <v>357</v>
       </c>
-      <c r="C892" s="15" t="s">
+      <c r="C892" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D892" s="53">
+      <c r="D892" s="10">
         <v>3</v>
       </c>
-      <c r="E892" s="9">
+      <c r="E892" s="8">
         <v>3</v>
       </c>
-      <c r="F892" s="9">
-        <v>1</v>
-      </c>
-      <c r="G892" s="53" t="s">
+      <c r="F892" s="8">
+        <v>1</v>
+      </c>
+      <c r="G892" s="10" t="s">
         <v>1974</v>
       </c>
       <c r="H892" s="8"/>
@@ -48787,22 +48923,22 @@
       <c r="A893" s="8">
         <v>892</v>
       </c>
-      <c r="B893" s="9">
+      <c r="B893" s="8">
         <v>357</v>
       </c>
-      <c r="C893" s="15" t="s">
+      <c r="C893" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D893" s="53">
+      <c r="D893" s="10">
         <v>5</v>
       </c>
-      <c r="E893" s="9">
+      <c r="E893" s="8">
         <v>4</v>
       </c>
-      <c r="F893" s="9">
-        <v>1</v>
-      </c>
-      <c r="G893" s="53" t="s">
+      <c r="F893" s="8">
+        <v>1</v>
+      </c>
+      <c r="G893" s="10" t="s">
         <v>1974</v>
       </c>
     </row>
@@ -48810,22 +48946,22 @@
       <c r="A894" s="8">
         <v>893</v>
       </c>
-      <c r="B894" s="9">
+      <c r="B894" s="8">
         <v>358</v>
       </c>
-      <c r="C894" s="15" t="s">
+      <c r="C894" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D894" s="53" t="s">
+      <c r="D894" s="10" t="s">
         <v>1972</v>
       </c>
-      <c r="E894" s="9">
+      <c r="E894" s="8">
         <v>5</v>
       </c>
-      <c r="F894" s="9">
-        <v>1</v>
-      </c>
-      <c r="G894" s="53" t="s">
+      <c r="F894" s="8">
+        <v>1</v>
+      </c>
+      <c r="G894" s="10" t="s">
         <v>1973</v>
       </c>
       <c r="H894" s="8"/>
@@ -48835,22 +48971,22 @@
       <c r="A895" s="8">
         <v>894</v>
       </c>
-      <c r="B895" s="9">
+      <c r="B895" s="8">
         <v>358</v>
       </c>
-      <c r="C895" s="15" t="s">
+      <c r="C895" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D895" s="53">
+      <c r="D895" s="10">
         <v>6</v>
       </c>
-      <c r="E895" s="9">
+      <c r="E895" s="8">
         <v>3</v>
       </c>
-      <c r="F895" s="9">
-        <v>1</v>
-      </c>
-      <c r="G895" s="53" t="s">
+      <c r="F895" s="8">
+        <v>1</v>
+      </c>
+      <c r="G895" s="10" t="s">
         <v>1974</v>
       </c>
       <c r="H895" s="8"/>
@@ -48860,22 +48996,22 @@
       <c r="A896" s="8">
         <v>895</v>
       </c>
-      <c r="B896" s="9">
+      <c r="B896" s="8">
         <v>358</v>
       </c>
-      <c r="C896" s="15" t="s">
+      <c r="C896" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D896" s="53">
+      <c r="D896" s="10">
         <v>7</v>
       </c>
-      <c r="E896" s="9">
+      <c r="E896" s="8">
         <v>4</v>
       </c>
-      <c r="F896" s="9">
-        <v>1</v>
-      </c>
-      <c r="G896" s="53" t="s">
+      <c r="F896" s="8">
+        <v>1</v>
+      </c>
+      <c r="G896" s="10" t="s">
         <v>1974</v>
       </c>
       <c r="H896" s="8"/>
@@ -48885,22 +49021,22 @@
       <c r="A897" s="8">
         <v>896</v>
       </c>
-      <c r="B897" s="9">
+      <c r="B897" s="8">
         <v>359</v>
       </c>
-      <c r="C897" s="15" t="s">
+      <c r="C897" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D897" s="53" t="s">
+      <c r="D897" s="10" t="s">
         <v>1972</v>
       </c>
-      <c r="E897" s="9">
+      <c r="E897" s="8">
         <v>5</v>
       </c>
-      <c r="F897" s="9">
-        <v>1</v>
-      </c>
-      <c r="G897" s="53" t="s">
+      <c r="F897" s="8">
+        <v>1</v>
+      </c>
+      <c r="G897" s="10" t="s">
         <v>1973</v>
       </c>
       <c r="H897" s="8"/>
@@ -48910,22 +49046,22 @@
       <c r="A898" s="8">
         <v>897</v>
       </c>
-      <c r="B898" s="9">
+      <c r="B898" s="8">
         <v>359</v>
       </c>
-      <c r="C898" s="15" t="s">
+      <c r="C898" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D898" s="53">
+      <c r="D898" s="10">
         <v>8</v>
       </c>
-      <c r="E898" s="9">
+      <c r="E898" s="8">
         <v>3</v>
       </c>
-      <c r="F898" s="9">
-        <v>1</v>
-      </c>
-      <c r="G898" s="53" t="s">
+      <c r="F898" s="8">
+        <v>1</v>
+      </c>
+      <c r="G898" s="10" t="s">
         <v>1974</v>
       </c>
       <c r="H898" s="8"/>
@@ -48938,19 +49074,19 @@
       <c r="B899" s="8">
         <v>360</v>
       </c>
-      <c r="C899" s="15" t="s">
+      <c r="C899" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D899" s="15" t="s">
+      <c r="D899" s="10" t="s">
         <v>1972</v>
       </c>
-      <c r="E899" s="14">
-        <v>2</v>
-      </c>
-      <c r="F899" s="14">
-        <v>1</v>
-      </c>
-      <c r="G899" s="15" t="s">
+      <c r="E899" s="8">
+        <v>2</v>
+      </c>
+      <c r="F899" s="8">
+        <v>1</v>
+      </c>
+      <c r="G899" s="10" t="s">
         <v>1973</v>
       </c>
       <c r="H899" s="8"/>
@@ -48963,19 +49099,19 @@
       <c r="B900" s="8">
         <v>360</v>
       </c>
-      <c r="C900" s="15" t="s">
+      <c r="C900" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D900" s="15">
-        <v>2</v>
-      </c>
-      <c r="E900" s="14">
-        <v>2</v>
-      </c>
-      <c r="F900" s="14">
-        <v>1</v>
-      </c>
-      <c r="G900" s="15" t="s">
+      <c r="D900" s="10">
+        <v>2</v>
+      </c>
+      <c r="E900" s="8">
+        <v>2</v>
+      </c>
+      <c r="F900" s="8">
+        <v>1</v>
+      </c>
+      <c r="G900" s="10" t="s">
         <v>1974</v>
       </c>
       <c r="H900" s="8"/>
@@ -48988,19 +49124,19 @@
       <c r="B901" s="8">
         <v>361</v>
       </c>
-      <c r="C901" s="15" t="s">
+      <c r="C901" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D901" s="15" t="s">
+      <c r="D901" s="10" t="s">
         <v>1972</v>
       </c>
-      <c r="E901" s="14">
-        <v>2</v>
-      </c>
-      <c r="F901" s="14">
-        <v>1</v>
-      </c>
-      <c r="G901" s="15" t="s">
+      <c r="E901" s="8">
+        <v>2</v>
+      </c>
+      <c r="F901" s="8">
+        <v>1</v>
+      </c>
+      <c r="G901" s="10" t="s">
         <v>1973</v>
       </c>
     </row>
@@ -49011,19 +49147,19 @@
       <c r="B902" s="8">
         <v>361</v>
       </c>
-      <c r="C902" s="15" t="s">
+      <c r="C902" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D902" s="15">
+      <c r="D902" s="10">
         <v>3</v>
       </c>
-      <c r="E902" s="14">
+      <c r="E902" s="8">
         <v>3</v>
       </c>
-      <c r="F902" s="14">
-        <v>1</v>
-      </c>
-      <c r="G902" s="15" t="s">
+      <c r="F902" s="8">
+        <v>1</v>
+      </c>
+      <c r="G902" s="10" t="s">
         <v>1974</v>
       </c>
     </row>
@@ -49034,19 +49170,19 @@
       <c r="B903" s="8">
         <v>361</v>
       </c>
-      <c r="C903" s="15" t="s">
+      <c r="C903" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D903" s="15">
+      <c r="D903" s="10">
         <v>5</v>
       </c>
-      <c r="E903" s="14">
+      <c r="E903" s="8">
         <v>4</v>
       </c>
-      <c r="F903" s="14">
-        <v>1</v>
-      </c>
-      <c r="G903" s="15" t="s">
+      <c r="F903" s="8">
+        <v>1</v>
+      </c>
+      <c r="G903" s="10" t="s">
         <v>1974</v>
       </c>
     </row>
@@ -49057,19 +49193,19 @@
       <c r="B904" s="8">
         <v>362</v>
       </c>
-      <c r="C904" s="15" t="s">
+      <c r="C904" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D904" s="15" t="s">
+      <c r="D904" s="10" t="s">
         <v>1972</v>
       </c>
-      <c r="E904" s="14">
-        <v>2</v>
-      </c>
-      <c r="F904" s="14">
-        <v>1</v>
-      </c>
-      <c r="G904" s="15" t="s">
+      <c r="E904" s="8">
+        <v>2</v>
+      </c>
+      <c r="F904" s="8">
+        <v>1</v>
+      </c>
+      <c r="G904" s="10" t="s">
         <v>1973</v>
       </c>
     </row>
@@ -49080,19 +49216,19 @@
       <c r="B905" s="8">
         <v>362</v>
       </c>
-      <c r="C905" s="15" t="s">
+      <c r="C905" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D905" s="15">
+      <c r="D905" s="10">
         <v>6</v>
       </c>
-      <c r="E905" s="14">
+      <c r="E905" s="8">
         <v>3</v>
       </c>
-      <c r="F905" s="14">
-        <v>1</v>
-      </c>
-      <c r="G905" s="15" t="s">
+      <c r="F905" s="8">
+        <v>1</v>
+      </c>
+      <c r="G905" s="10" t="s">
         <v>1974</v>
       </c>
     </row>
@@ -49103,19 +49239,19 @@
       <c r="B906" s="8">
         <v>362</v>
       </c>
-      <c r="C906" s="15" t="s">
+      <c r="C906" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D906" s="15">
+      <c r="D906" s="10">
         <v>7</v>
       </c>
-      <c r="E906" s="14">
+      <c r="E906" s="8">
         <v>4</v>
       </c>
-      <c r="F906" s="14">
-        <v>1</v>
-      </c>
-      <c r="G906" s="15" t="s">
+      <c r="F906" s="8">
+        <v>1</v>
+      </c>
+      <c r="G906" s="10" t="s">
         <v>1974</v>
       </c>
     </row>
@@ -49126,19 +49262,19 @@
       <c r="B907" s="8">
         <v>363</v>
       </c>
-      <c r="C907" s="15" t="s">
+      <c r="C907" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D907" s="15" t="s">
+      <c r="D907" s="10" t="s">
         <v>1972</v>
       </c>
-      <c r="E907" s="14">
-        <v>2</v>
-      </c>
-      <c r="F907" s="14">
-        <v>1</v>
-      </c>
-      <c r="G907" s="15" t="s">
+      <c r="E907" s="8">
+        <v>2</v>
+      </c>
+      <c r="F907" s="8">
+        <v>1</v>
+      </c>
+      <c r="G907" s="10" t="s">
         <v>1973</v>
       </c>
     </row>
@@ -49149,19 +49285,19 @@
       <c r="B908" s="8">
         <v>363</v>
       </c>
-      <c r="C908" s="15" t="s">
+      <c r="C908" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D908" s="15">
+      <c r="D908" s="10">
         <v>8</v>
       </c>
-      <c r="E908" s="14">
+      <c r="E908" s="8">
         <v>3</v>
       </c>
-      <c r="F908" s="14">
-        <v>1</v>
-      </c>
-      <c r="G908" s="15" t="s">
+      <c r="F908" s="8">
+        <v>1</v>
+      </c>
+      <c r="G908" s="10" t="s">
         <v>1974</v>
       </c>
     </row>
@@ -49172,19 +49308,19 @@
       <c r="B909" s="8">
         <v>364</v>
       </c>
-      <c r="C909" s="15" t="s">
+      <c r="C909" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D909" s="15" t="s">
+      <c r="D909" s="10" t="s">
         <v>1971</v>
       </c>
-      <c r="E909" s="14">
-        <v>2</v>
-      </c>
-      <c r="F909" s="14">
-        <v>1</v>
-      </c>
-      <c r="G909" s="15" t="s">
+      <c r="E909" s="8">
+        <v>2</v>
+      </c>
+      <c r="F909" s="8">
+        <v>1</v>
+      </c>
+      <c r="G909" s="10" t="s">
         <v>2080</v>
       </c>
     </row>
@@ -49195,19 +49331,19 @@
       <c r="B910" s="8">
         <v>364</v>
       </c>
-      <c r="C910" s="15" t="s">
+      <c r="C910" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D910" s="15">
-        <v>2</v>
-      </c>
-      <c r="E910" s="14">
+      <c r="D910" s="10">
+        <v>2</v>
+      </c>
+      <c r="E910" s="8">
         <v>3</v>
       </c>
-      <c r="F910" s="14">
-        <v>1</v>
-      </c>
-      <c r="G910" s="15" t="s">
+      <c r="F910" s="8">
+        <v>1</v>
+      </c>
+      <c r="G910" s="10" t="s">
         <v>1974</v>
       </c>
     </row>
@@ -49218,19 +49354,19 @@
       <c r="B911" s="8">
         <v>364</v>
       </c>
-      <c r="C911" s="15" t="s">
+      <c r="C911" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D911" s="15" t="s">
+      <c r="D911" s="10" t="s">
         <v>1985</v>
       </c>
-      <c r="E911" s="14">
-        <v>2</v>
-      </c>
-      <c r="F911" s="14">
-        <v>2</v>
-      </c>
-      <c r="G911" s="15" t="s">
+      <c r="E911" s="8">
+        <v>2</v>
+      </c>
+      <c r="F911" s="8">
+        <v>2</v>
+      </c>
+      <c r="G911" s="10" t="s">
         <v>2017</v>
       </c>
     </row>
@@ -49241,69 +49377,69 @@
       <c r="B912" s="8">
         <v>364</v>
       </c>
-      <c r="C912" s="15" t="s">
+      <c r="C912" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D912" s="15">
-        <v>2</v>
-      </c>
-      <c r="E912" s="14">
+      <c r="D912" s="10">
+        <v>2</v>
+      </c>
+      <c r="E912" s="8">
         <v>3</v>
       </c>
-      <c r="F912" s="14">
-        <v>2</v>
-      </c>
-      <c r="G912" s="15" t="s">
+      <c r="F912" s="8">
+        <v>2</v>
+      </c>
+      <c r="G912" s="10" t="s">
         <v>1974</v>
       </c>
     </row>
-    <row r="913" spans="1:7" s="8" customFormat="1">
+    <row r="913" spans="1:8" s="8" customFormat="1">
       <c r="A913" s="8">
         <v>912</v>
       </c>
       <c r="B913" s="8">
         <v>365</v>
       </c>
-      <c r="C913" s="15" t="s">
+      <c r="C913" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D913" s="15">
+      <c r="D913" s="10">
         <v>11</v>
       </c>
-      <c r="E913" s="14">
+      <c r="E913" s="8">
         <v>3</v>
       </c>
-      <c r="F913" s="14">
-        <v>1</v>
-      </c>
-      <c r="G913" s="15" t="s">
+      <c r="F913" s="8">
+        <v>1</v>
+      </c>
+      <c r="G913" s="10" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="914" spans="1:7" s="8" customFormat="1">
+    <row r="914" spans="1:8" s="8" customFormat="1">
       <c r="A914" s="8">
         <v>913</v>
       </c>
       <c r="B914" s="8">
         <v>366</v>
       </c>
-      <c r="C914" s="15" t="s">
+      <c r="C914" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D914" s="15">
+      <c r="D914" s="10">
         <v>12</v>
       </c>
-      <c r="E914" s="14">
+      <c r="E914" s="8">
         <v>3</v>
       </c>
-      <c r="F914" s="14">
-        <v>1</v>
-      </c>
-      <c r="G914" s="15" t="s">
+      <c r="F914" s="8">
+        <v>1</v>
+      </c>
+      <c r="G914" s="10" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="915" spans="1:7" s="8" customFormat="1">
+    <row r="915" spans="1:8" s="8" customFormat="1">
       <c r="A915" s="8">
         <v>914</v>
       </c>
@@ -49326,741 +49462,897 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="916" spans="1:7" s="8" customFormat="1">
+    <row r="916" spans="1:8" s="8" customFormat="1">
       <c r="A916" s="8">
         <v>915</v>
       </c>
       <c r="B916" s="8">
         <v>368</v>
       </c>
-      <c r="C916" s="15" t="s">
+      <c r="C916" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D916" s="15" t="s">
+      <c r="D916" s="10" t="s">
         <v>1913</v>
       </c>
-      <c r="E916" s="14">
-        <v>2</v>
-      </c>
-      <c r="F916" s="14">
-        <v>1</v>
-      </c>
-      <c r="G916" s="15" t="s">
+      <c r="E916" s="8">
+        <v>2</v>
+      </c>
+      <c r="F916" s="8">
+        <v>1</v>
+      </c>
+      <c r="G916" s="10" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="917" spans="1:7" s="8" customFormat="1">
+    <row r="917" spans="1:8" s="8" customFormat="1">
       <c r="A917" s="8">
         <v>916</v>
       </c>
       <c r="B917" s="8">
         <v>368</v>
       </c>
-      <c r="C917" s="15" t="s">
+      <c r="C917" s="10" t="s">
         <v>2000</v>
       </c>
-      <c r="D917" s="15" t="s">
+      <c r="D917" s="10" t="s">
         <v>2001</v>
       </c>
-      <c r="E917" s="14">
-        <v>2</v>
-      </c>
-      <c r="F917" s="14">
-        <v>2</v>
-      </c>
-      <c r="G917" s="15" t="s">
+      <c r="E917" s="8">
+        <v>2</v>
+      </c>
+      <c r="F917" s="8">
+        <v>2</v>
+      </c>
+      <c r="G917" s="10" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="918" spans="1:7" s="8" customFormat="1">
+    <row r="918" spans="1:8" s="8" customFormat="1">
       <c r="A918" s="8">
         <v>917</v>
       </c>
       <c r="B918" s="8">
         <v>369</v>
       </c>
-      <c r="C918" s="15" t="s">
+      <c r="C918" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D918" s="15" t="s">
+      <c r="D918" s="10" t="s">
         <v>1984</v>
       </c>
-      <c r="E918" s="14">
-        <v>2</v>
-      </c>
-      <c r="F918" s="14">
-        <v>1</v>
-      </c>
-      <c r="G918" s="15" t="s">
+      <c r="E918" s="8">
+        <v>2</v>
+      </c>
+      <c r="F918" s="8">
+        <v>1</v>
+      </c>
+      <c r="G918" s="10" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="919" spans="1:7" s="8" customFormat="1">
+    <row r="919" spans="1:8" s="8" customFormat="1">
       <c r="A919" s="8">
         <v>918</v>
       </c>
       <c r="B919" s="8">
         <v>369</v>
       </c>
-      <c r="C919" s="15" t="s">
+      <c r="C919" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D919" s="15" t="s">
+      <c r="D919" s="10" t="s">
         <v>2010</v>
       </c>
-      <c r="E919" s="14">
+      <c r="E919" s="8">
         <v>5</v>
       </c>
-      <c r="F919" s="14">
-        <v>2</v>
-      </c>
-      <c r="G919" s="15" t="s">
+      <c r="F919" s="8">
+        <v>2</v>
+      </c>
+      <c r="G919" s="10" t="s">
         <v>1999</v>
       </c>
     </row>
-    <row r="920" spans="1:7" s="8" customFormat="1">
+    <row r="920" spans="1:8" s="8" customFormat="1">
       <c r="A920" s="8">
         <v>919</v>
       </c>
-      <c r="B920" s="94">
+      <c r="B920" s="8">
         <v>370</v>
       </c>
-      <c r="C920" s="95" t="s">
+      <c r="C920" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D920" s="95" t="s">
+      <c r="D920" s="10" t="s">
         <v>1971</v>
       </c>
-      <c r="E920" s="94">
+      <c r="E920" s="8">
         <v>5</v>
       </c>
-      <c r="F920" s="94">
-        <v>1</v>
-      </c>
-      <c r="G920" s="95" t="s">
+      <c r="F920" s="8">
+        <v>1</v>
+      </c>
+      <c r="G920" s="10" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="921" spans="1:7" s="8" customFormat="1">
+    <row r="921" spans="1:8" s="8" customFormat="1">
       <c r="A921" s="8">
         <v>920</v>
       </c>
-      <c r="B921" s="94">
+      <c r="B921" s="8">
         <v>371</v>
       </c>
-      <c r="C921" s="95" t="s">
+      <c r="C921" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D921" s="95" t="s">
+      <c r="D921" s="10" t="s">
         <v>1971</v>
       </c>
-      <c r="E921" s="94">
-        <v>2</v>
-      </c>
-      <c r="F921" s="94">
-        <v>1</v>
-      </c>
-      <c r="G921" s="95" t="s">
+      <c r="E921" s="8">
+        <v>2</v>
+      </c>
+      <c r="F921" s="8">
+        <v>1</v>
+      </c>
+      <c r="G921" s="10" t="s">
         <v>1728</v>
       </c>
     </row>
-    <row r="922" spans="1:7">
+    <row r="922" spans="1:8">
       <c r="A922" s="8">
         <v>921</v>
       </c>
-      <c r="B922" s="94">
+      <c r="B922" s="8">
         <v>372</v>
       </c>
-      <c r="C922" s="95" t="s">
+      <c r="C922" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D922" s="95" t="s">
+      <c r="D922" s="10" t="s">
         <v>1971</v>
       </c>
-      <c r="E922" s="94">
+      <c r="E922" s="8">
         <v>5</v>
       </c>
-      <c r="F922" s="94">
-        <v>1</v>
-      </c>
-      <c r="G922" s="95" t="s">
+      <c r="F922" s="8">
+        <v>1</v>
+      </c>
+      <c r="G922" s="10" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="923" spans="1:7">
+      <c r="H922" s="8"/>
+    </row>
+    <row r="923" spans="1:8">
       <c r="A923" s="8">
         <v>922</v>
       </c>
-      <c r="B923" s="94">
+      <c r="B923" s="8">
         <v>373</v>
       </c>
-      <c r="C923" s="95" t="s">
+      <c r="C923" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="D923" s="95" t="s">
+      <c r="D923" s="10" t="s">
         <v>1971</v>
       </c>
-      <c r="E923" s="94">
-        <v>2</v>
-      </c>
-      <c r="F923" s="94">
-        <v>1</v>
-      </c>
-      <c r="G923" s="95" t="s">
+      <c r="E923" s="8">
+        <v>2</v>
+      </c>
+      <c r="F923" s="8">
+        <v>1</v>
+      </c>
+      <c r="G923" s="10" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="924" spans="1:7" s="8" customFormat="1">
+      <c r="H923" s="8"/>
+    </row>
+    <row r="924" spans="1:8" s="8" customFormat="1">
       <c r="A924" s="8">
         <v>923</v>
       </c>
       <c r="B924" s="8">
         <v>374</v>
       </c>
-      <c r="C924" s="15" t="s">
+      <c r="C924" s="10" t="s">
         <v>2027</v>
       </c>
-      <c r="D924" s="15" t="s">
+      <c r="D924" s="10" t="s">
         <v>1916</v>
       </c>
-      <c r="E924" s="14">
+      <c r="E924" s="8">
         <v>5</v>
       </c>
-      <c r="F924" s="14">
-        <v>1</v>
-      </c>
-      <c r="G924" s="15" t="s">
+      <c r="F924" s="8">
+        <v>1</v>
+      </c>
+      <c r="G924" s="10" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="925" spans="1:7" s="8" customFormat="1">
+    <row r="925" spans="1:8" s="8" customFormat="1">
       <c r="A925" s="8">
         <v>924</v>
       </c>
       <c r="B925" s="8">
         <v>375</v>
       </c>
-      <c r="C925" s="15" t="s">
+      <c r="C925" s="10" t="s">
         <v>2000</v>
       </c>
-      <c r="D925" s="15" t="s">
+      <c r="D925" s="10" t="s">
         <v>1611</v>
       </c>
-      <c r="E925" s="14">
-        <v>2</v>
-      </c>
-      <c r="F925" s="14">
-        <v>1</v>
-      </c>
-      <c r="G925" s="15" t="s">
+      <c r="E925" s="8">
+        <v>2</v>
+      </c>
+      <c r="F925" s="8">
+        <v>1</v>
+      </c>
+      <c r="G925" s="10" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="926" spans="1:7" s="8" customFormat="1">
+    <row r="926" spans="1:8" s="8" customFormat="1">
       <c r="A926" s="8">
         <v>925</v>
       </c>
       <c r="B926" s="8">
         <v>375</v>
       </c>
-      <c r="C926" s="15" t="s">
+      <c r="C926" s="10" t="s">
         <v>2000</v>
       </c>
-      <c r="D926" s="15" t="s">
+      <c r="D926" s="10" t="s">
         <v>2036</v>
       </c>
-      <c r="E926" s="14">
-        <v>2</v>
-      </c>
-      <c r="F926" s="14">
-        <v>2</v>
-      </c>
-      <c r="G926" s="15" t="s">
+      <c r="E926" s="8">
+        <v>2</v>
+      </c>
+      <c r="F926" s="8">
+        <v>2</v>
+      </c>
+      <c r="G926" s="10" t="s">
         <v>2038</v>
       </c>
     </row>
-    <row r="927" spans="1:7" s="8" customFormat="1">
+    <row r="927" spans="1:8" s="8" customFormat="1">
       <c r="A927" s="8">
         <v>926</v>
       </c>
       <c r="B927" s="8">
         <v>376</v>
       </c>
-      <c r="C927" s="15" t="s">
+      <c r="C927" s="10" t="s">
         <v>2000</v>
       </c>
-      <c r="D927" s="15" t="s">
+      <c r="D927" s="10" t="s">
         <v>1831</v>
       </c>
-      <c r="E927" s="14">
-        <v>2</v>
-      </c>
-      <c r="F927" s="14">
-        <v>1</v>
-      </c>
-      <c r="G927" s="15" t="s">
+      <c r="E927" s="8">
+        <v>2</v>
+      </c>
+      <c r="F927" s="8">
+        <v>1</v>
+      </c>
+      <c r="G927" s="10" t="s">
         <v>2045</v>
       </c>
     </row>
-    <row r="928" spans="1:7" s="8" customFormat="1">
+    <row r="928" spans="1:8" s="8" customFormat="1">
       <c r="A928" s="8">
         <v>927</v>
       </c>
       <c r="B928" s="8">
         <v>377</v>
       </c>
-      <c r="C928" s="15" t="s">
+      <c r="C928" s="10" t="s">
         <v>2000</v>
       </c>
-      <c r="D928" s="15" t="s">
+      <c r="D928" s="10" t="s">
         <v>1913</v>
       </c>
-      <c r="E928" s="14">
-        <v>2</v>
-      </c>
-      <c r="F928" s="14">
-        <v>1</v>
-      </c>
-      <c r="G928" s="15" t="s">
+      <c r="E928" s="8">
+        <v>2</v>
+      </c>
+      <c r="F928" s="8">
+        <v>1</v>
+      </c>
+      <c r="G928" s="10" t="s">
         <v>2044</v>
       </c>
     </row>
-    <row r="929" spans="1:7" s="8" customFormat="1">
+    <row r="929" spans="1:8" s="8" customFormat="1">
       <c r="A929" s="8">
         <v>928</v>
       </c>
       <c r="B929" s="8">
         <v>378</v>
       </c>
-      <c r="C929" s="15" t="s">
+      <c r="C929" s="10" t="s">
         <v>2000</v>
       </c>
-      <c r="D929" s="15" t="s">
+      <c r="D929" s="10" t="s">
         <v>1937</v>
       </c>
-      <c r="E929" s="14">
-        <v>2</v>
-      </c>
-      <c r="F929" s="14">
-        <v>1</v>
-      </c>
-      <c r="G929" s="15" t="s">
+      <c r="E929" s="8">
+        <v>2</v>
+      </c>
+      <c r="F929" s="8">
+        <v>1</v>
+      </c>
+      <c r="G929" s="10" t="s">
         <v>2043</v>
       </c>
     </row>
-    <row r="930" spans="1:7" s="8" customFormat="1">
+    <row r="930" spans="1:8" s="8" customFormat="1">
       <c r="A930" s="8">
         <v>929</v>
       </c>
       <c r="B930" s="8">
         <v>379</v>
       </c>
-      <c r="C930" s="15" t="s">
+      <c r="C930" s="10" t="s">
         <v>1154</v>
       </c>
-      <c r="D930" s="15" t="s">
+      <c r="D930" s="10" t="s">
         <v>1971</v>
       </c>
-      <c r="E930" s="14">
-        <v>2</v>
-      </c>
-      <c r="F930" s="14">
-        <v>1</v>
-      </c>
-      <c r="G930" s="15" t="s">
+      <c r="E930" s="8">
+        <v>2</v>
+      </c>
+      <c r="F930" s="8">
+        <v>1</v>
+      </c>
+      <c r="G930" s="10" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="931" spans="1:7" s="8" customFormat="1">
+    <row r="931" spans="1:8" s="8" customFormat="1">
       <c r="A931" s="8">
         <v>930</v>
       </c>
       <c r="B931" s="8">
         <v>379</v>
       </c>
-      <c r="C931" s="15" t="s">
+      <c r="C931" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D931" s="15">
+      <c r="D931" s="10">
         <v>0</v>
       </c>
-      <c r="E931" s="14">
-        <v>2</v>
-      </c>
-      <c r="F931" s="14">
-        <v>1</v>
-      </c>
-      <c r="G931" s="15" t="s">
+      <c r="E931" s="8">
+        <v>2</v>
+      </c>
+      <c r="F931" s="8">
+        <v>1</v>
+      </c>
+      <c r="G931" s="10" t="s">
         <v>2046</v>
       </c>
     </row>
-    <row r="932" spans="1:7">
+    <row r="932" spans="1:8">
       <c r="A932" s="8">
         <v>931</v>
       </c>
-      <c r="B932" s="94">
+      <c r="B932" s="8">
         <v>380</v>
       </c>
-      <c r="C932" s="94" t="s">
+      <c r="C932" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="D932" s="94" t="s">
+      <c r="D932" s="8" t="s">
         <v>1668</v>
       </c>
-      <c r="E932" s="94">
+      <c r="E932" s="8">
         <v>5</v>
       </c>
-      <c r="F932" s="94">
-        <v>1</v>
-      </c>
-      <c r="G932" s="94" t="s">
+      <c r="F932" s="8">
+        <v>1</v>
+      </c>
+      <c r="G932" s="8" t="s">
         <v>1996</v>
       </c>
-    </row>
-    <row r="933" spans="1:7" ht="16.5">
+      <c r="H932" s="8"/>
+    </row>
+    <row r="933" spans="1:8" ht="16.5">
       <c r="A933" s="8">
         <v>932</v>
       </c>
-      <c r="B933" s="94">
+      <c r="B933" s="8">
         <v>380</v>
       </c>
-      <c r="C933" s="94" t="s">
+      <c r="C933" s="8" t="s">
         <v>2048</v>
       </c>
-      <c r="D933" s="113" t="s">
+      <c r="D933" s="119" t="s">
         <v>2049</v>
       </c>
-      <c r="E933" s="94">
-        <v>2</v>
-      </c>
-      <c r="F933" s="94">
-        <v>1</v>
-      </c>
-      <c r="G933" s="94" t="s">
+      <c r="E933" s="8">
+        <v>2</v>
+      </c>
+      <c r="F933" s="8">
+        <v>1</v>
+      </c>
+      <c r="G933" s="8" t="s">
         <v>2050</v>
       </c>
-    </row>
-    <row r="934" spans="1:7">
+      <c r="H933" s="8"/>
+    </row>
+    <row r="934" spans="1:8">
       <c r="A934" s="8">
         <v>933</v>
       </c>
-      <c r="B934" s="94">
+      <c r="B934" s="8">
         <v>380</v>
       </c>
-      <c r="C934" s="94" t="s">
+      <c r="C934" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="D934" s="94" t="s">
+      <c r="D934" s="8" t="s">
         <v>1918</v>
       </c>
-      <c r="E934" s="94">
-        <v>2</v>
-      </c>
-      <c r="F934" s="94">
-        <v>2</v>
-      </c>
-      <c r="G934" s="95" t="s">
+      <c r="E934" s="8">
+        <v>2</v>
+      </c>
+      <c r="F934" s="8">
+        <v>2</v>
+      </c>
+      <c r="G934" s="10" t="s">
         <v>2051</v>
       </c>
-    </row>
-    <row r="935" spans="1:7">
+      <c r="H934" s="8"/>
+    </row>
+    <row r="935" spans="1:8">
       <c r="A935" s="8">
         <v>934</v>
       </c>
-      <c r="B935" s="94">
+      <c r="B935" s="8">
         <v>380</v>
       </c>
-      <c r="C935" s="94" t="s">
+      <c r="C935" s="8" t="s">
         <v>2052</v>
       </c>
-      <c r="D935" s="95" t="s">
+      <c r="D935" s="10" t="s">
         <v>2053</v>
       </c>
-      <c r="E935" s="94">
-        <v>2</v>
-      </c>
-      <c r="F935" s="94">
-        <v>2</v>
-      </c>
-      <c r="G935" s="94" t="s">
+      <c r="E935" s="8">
+        <v>2</v>
+      </c>
+      <c r="F935" s="8">
+        <v>2</v>
+      </c>
+      <c r="G935" s="8" t="s">
         <v>2054</v>
       </c>
-    </row>
-    <row r="936" spans="1:7" s="8" customFormat="1">
+      <c r="H935" s="8"/>
+    </row>
+    <row r="936" spans="1:8" s="8" customFormat="1">
       <c r="A936" s="8">
         <v>935</v>
       </c>
       <c r="B936" s="8">
         <v>381</v>
       </c>
-      <c r="C936" s="15" t="s">
+      <c r="C936" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D936" s="15">
+      <c r="D936" s="10">
         <v>0</v>
       </c>
-      <c r="E936" s="14">
-        <v>2</v>
-      </c>
-      <c r="F936" s="14">
-        <v>1</v>
-      </c>
-      <c r="G936" s="15" t="s">
+      <c r="E936" s="8">
+        <v>2</v>
+      </c>
+      <c r="F936" s="8">
+        <v>1</v>
+      </c>
+      <c r="G936" s="10" t="s">
         <v>2046</v>
       </c>
     </row>
-    <row r="937" spans="1:7">
+    <row r="937" spans="1:8">
       <c r="A937" s="8">
         <v>936</v>
       </c>
-      <c r="B937" s="117">
+      <c r="B937" s="8">
         <v>382</v>
       </c>
-      <c r="C937" s="118" t="s">
+      <c r="C937" s="10" t="s">
         <v>1063</v>
       </c>
-      <c r="D937" s="118" t="s">
+      <c r="D937" s="10" t="s">
         <v>1223</v>
       </c>
-      <c r="E937" s="117">
-        <v>2</v>
-      </c>
-      <c r="F937" s="117">
-        <v>1</v>
-      </c>
-      <c r="G937" s="118" t="s">
+      <c r="E937" s="8">
+        <v>2</v>
+      </c>
+      <c r="F937" s="8">
+        <v>1</v>
+      </c>
+      <c r="G937" s="10" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="938" spans="1:7">
+      <c r="H937" s="8"/>
+    </row>
+    <row r="938" spans="1:8">
       <c r="A938" s="8">
         <v>937</v>
       </c>
-      <c r="B938" s="117">
+      <c r="B938" s="8">
         <v>382</v>
       </c>
-      <c r="C938" s="118" t="s">
+      <c r="C938" s="10" t="s">
         <v>863</v>
       </c>
-      <c r="D938" s="118" t="s">
+      <c r="D938" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="E938" s="117">
-        <v>2</v>
-      </c>
-      <c r="F938" s="117">
-        <v>2</v>
-      </c>
-      <c r="G938" s="118" t="s">
+      <c r="E938" s="8">
+        <v>2</v>
+      </c>
+      <c r="F938" s="8">
+        <v>2</v>
+      </c>
+      <c r="G938" s="10" t="s">
         <v>2066</v>
       </c>
-    </row>
-    <row r="939" spans="1:7">
+      <c r="H938" s="8"/>
+    </row>
+    <row r="939" spans="1:8">
       <c r="A939" s="8">
         <v>938</v>
       </c>
-      <c r="B939" s="117">
+      <c r="B939" s="8">
         <v>382</v>
       </c>
-      <c r="C939" s="118" t="s">
+      <c r="C939" s="10" t="s">
         <v>863</v>
       </c>
-      <c r="D939" s="118" t="s">
+      <c r="D939" s="10" t="s">
         <v>872</v>
       </c>
-      <c r="E939" s="117">
-        <v>2</v>
-      </c>
-      <c r="F939" s="117">
+      <c r="E939" s="8">
+        <v>2</v>
+      </c>
+      <c r="F939" s="8">
         <v>3</v>
       </c>
-      <c r="G939" s="118" t="s">
+      <c r="G939" s="10" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="940" spans="1:7">
+      <c r="H939" s="8"/>
+    </row>
+    <row r="940" spans="1:8">
       <c r="A940" s="8">
         <v>939</v>
       </c>
-      <c r="B940" s="119">
+      <c r="B940" s="8">
         <v>383</v>
       </c>
-      <c r="C940" s="45" t="s">
+      <c r="C940" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D940" s="119">
-        <v>1</v>
-      </c>
-      <c r="E940" s="119">
+      <c r="D940" s="8">
+        <v>1</v>
+      </c>
+      <c r="E940" s="8">
         <v>3</v>
       </c>
-      <c r="F940" s="119">
-        <v>1</v>
-      </c>
-      <c r="G940" s="45" t="s">
+      <c r="F940" s="8">
+        <v>1</v>
+      </c>
+      <c r="G940" s="10" t="s">
         <v>2068</v>
       </c>
-    </row>
-    <row r="941" spans="1:7">
+      <c r="H940" s="8"/>
+    </row>
+    <row r="941" spans="1:8">
       <c r="A941" s="8">
         <v>940</v>
       </c>
-      <c r="B941" s="119">
+      <c r="B941" s="8">
         <v>383</v>
       </c>
-      <c r="C941" s="45" t="s">
+      <c r="C941" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D941" s="119">
+      <c r="D941" s="8">
         <v>7</v>
       </c>
-      <c r="E941" s="119">
+      <c r="E941" s="8">
         <v>4</v>
       </c>
-      <c r="F941" s="119">
-        <v>1</v>
-      </c>
-      <c r="G941" s="45" t="s">
+      <c r="F941" s="8">
+        <v>1</v>
+      </c>
+      <c r="G941" s="10" t="s">
         <v>2069</v>
       </c>
-    </row>
-    <row r="942" spans="1:7">
+      <c r="H941" s="8"/>
+    </row>
+    <row r="942" spans="1:8">
       <c r="A942" s="8">
         <v>941</v>
       </c>
-      <c r="B942" s="119">
+      <c r="B942" s="8">
         <v>383</v>
       </c>
-      <c r="C942" s="119" t="s">
+      <c r="C942" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="D942" s="119" t="s">
+      <c r="D942" s="8" t="s">
         <v>864</v>
       </c>
-      <c r="E942" s="119">
+      <c r="E942" s="8">
         <v>5</v>
       </c>
-      <c r="F942" s="119">
-        <v>1</v>
-      </c>
-      <c r="G942" s="45" t="s">
+      <c r="F942" s="8">
+        <v>1</v>
+      </c>
+      <c r="G942" s="10" t="s">
         <v>2070</v>
       </c>
-    </row>
-    <row r="943" spans="1:7">
+      <c r="H942" s="8"/>
+    </row>
+    <row r="943" spans="1:8">
       <c r="A943" s="8">
         <v>942</v>
       </c>
-      <c r="B943" s="117">
+      <c r="B943" s="8">
         <v>384</v>
       </c>
-      <c r="C943" s="118" t="s">
+      <c r="C943" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D943" s="117">
-        <v>1</v>
-      </c>
-      <c r="E943" s="117">
+      <c r="D943" s="8">
+        <v>1</v>
+      </c>
+      <c r="E943" s="8">
         <v>3</v>
       </c>
-      <c r="F943" s="117">
-        <v>1</v>
-      </c>
-      <c r="G943" s="118" t="s">
+      <c r="F943" s="8">
+        <v>1</v>
+      </c>
+      <c r="G943" s="10" t="s">
         <v>2068</v>
       </c>
-    </row>
-    <row r="944" spans="1:7">
+      <c r="H943" s="8"/>
+    </row>
+    <row r="944" spans="1:8">
       <c r="A944" s="8">
         <v>943</v>
       </c>
-      <c r="B944" s="117">
+      <c r="B944" s="8">
         <v>384</v>
       </c>
-      <c r="C944" s="118" t="s">
+      <c r="C944" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D944" s="117">
+      <c r="D944" s="8">
         <v>7</v>
       </c>
-      <c r="E944" s="117">
+      <c r="E944" s="8">
         <v>4</v>
       </c>
-      <c r="F944" s="117">
-        <v>1</v>
-      </c>
-      <c r="G944" s="118" t="s">
+      <c r="F944" s="8">
+        <v>1</v>
+      </c>
+      <c r="G944" s="10" t="s">
         <v>2069</v>
       </c>
-    </row>
-    <row r="945" spans="1:7">
+      <c r="H944" s="8"/>
+    </row>
+    <row r="945" spans="1:8">
       <c r="A945" s="8">
         <v>944</v>
       </c>
-      <c r="B945" s="117">
+      <c r="B945" s="8">
         <v>384</v>
       </c>
-      <c r="C945" s="117" t="s">
+      <c r="C945" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="D945" s="117" t="s">
+      <c r="D945" s="8" t="s">
         <v>864</v>
       </c>
-      <c r="E945" s="117">
+      <c r="E945" s="8">
         <v>5</v>
       </c>
-      <c r="F945" s="117">
-        <v>1</v>
-      </c>
-      <c r="G945" s="118" t="s">
+      <c r="F945" s="8">
+        <v>1</v>
+      </c>
+      <c r="G945" s="10" t="s">
         <v>2070</v>
       </c>
-    </row>
-    <row r="946" spans="1:7" s="8" customFormat="1">
+      <c r="H945" s="8"/>
+    </row>
+    <row r="946" spans="1:8" s="8" customFormat="1">
       <c r="A946" s="8">
         <v>945</v>
       </c>
       <c r="B946" s="8">
         <v>385</v>
       </c>
-      <c r="C946" s="15" t="s">
+      <c r="C946" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D946" s="15">
+      <c r="D946" s="10">
         <v>0</v>
       </c>
-      <c r="E946" s="14">
-        <v>2</v>
-      </c>
-      <c r="F946" s="14">
-        <v>1</v>
-      </c>
-      <c r="G946" s="15" t="s">
+      <c r="E946" s="8">
+        <v>2</v>
+      </c>
+      <c r="F946" s="8">
+        <v>1</v>
+      </c>
+      <c r="G946" s="10" t="s">
         <v>2075</v>
       </c>
     </row>
-    <row r="947" spans="1:7" s="8" customFormat="1">
+    <row r="947" spans="1:8" s="8" customFormat="1">
       <c r="A947" s="8">
         <v>946</v>
       </c>
       <c r="B947" s="8">
         <v>386</v>
       </c>
-      <c r="C947" s="15" t="s">
+      <c r="C947" s="10" t="s">
         <v>2076</v>
       </c>
-      <c r="D947" s="15">
-        <v>1</v>
-      </c>
-      <c r="E947" s="14">
+      <c r="D947" s="10">
+        <v>1</v>
+      </c>
+      <c r="E947" s="8">
         <v>3</v>
       </c>
-      <c r="F947" s="14">
-        <v>1</v>
-      </c>
-      <c r="G947" s="15" t="s">
+      <c r="F947" s="8">
+        <v>1</v>
+      </c>
+      <c r="G947" s="10" t="s">
         <v>2077</v>
       </c>
+    </row>
+    <row r="948" spans="1:8">
+      <c r="A948" s="8">
+        <v>947</v>
+      </c>
+      <c r="B948" s="9">
+        <v>387</v>
+      </c>
+      <c r="C948" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="D948" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="E948" s="9">
+        <v>5</v>
+      </c>
+      <c r="F948" s="9">
+        <v>1</v>
+      </c>
+      <c r="G948" s="9" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" s="8" customFormat="1"/>
+    <row r="950" spans="1:8" s="8" customFormat="1">
+      <c r="C950" s="10"/>
+      <c r="D950" s="10"/>
+      <c r="G950" s="10"/>
+    </row>
+    <row r="951" spans="1:8" s="8" customFormat="1">
+      <c r="C951" s="10"/>
+      <c r="D951" s="10"/>
+      <c r="G951" s="10"/>
+    </row>
+    <row r="952" spans="1:8" s="8" customFormat="1"/>
+    <row r="953" spans="1:8" s="8" customFormat="1">
+      <c r="C953" s="10"/>
+      <c r="D953" s="10"/>
+      <c r="G953" s="10"/>
+    </row>
+    <row r="954" spans="1:8" s="8" customFormat="1">
+      <c r="C954" s="10"/>
+      <c r="D954" s="10"/>
+      <c r="G954" s="10"/>
+    </row>
+    <row r="955" spans="1:8" s="8" customFormat="1">
+      <c r="C955" s="10"/>
+      <c r="D955" s="10"/>
+      <c r="G955" s="10"/>
+    </row>
+    <row r="956" spans="1:8" s="8" customFormat="1"/>
+    <row r="957" spans="1:8" s="8" customFormat="1">
+      <c r="C957" s="10"/>
+      <c r="D957" s="10"/>
+      <c r="G957" s="10"/>
+    </row>
+    <row r="958" spans="1:8" s="8" customFormat="1">
+      <c r="C958" s="10"/>
+      <c r="D958" s="10"/>
+      <c r="G958" s="10"/>
+    </row>
+    <row r="959" spans="1:8" s="8" customFormat="1">
+      <c r="C959" s="10"/>
+      <c r="D959" s="10"/>
+      <c r="G959" s="10"/>
+    </row>
+    <row r="960" spans="1:8" s="8" customFormat="1"/>
+    <row r="961" spans="3:7" s="8" customFormat="1">
+      <c r="C961" s="10"/>
+      <c r="D961" s="10"/>
+      <c r="G961" s="10"/>
+    </row>
+    <row r="962" spans="3:7" s="8" customFormat="1">
+      <c r="C962" s="10"/>
+      <c r="D962" s="10"/>
+      <c r="G962" s="10"/>
+    </row>
+    <row r="963" spans="3:7" s="8" customFormat="1">
+      <c r="C963" s="10"/>
+      <c r="D963" s="10"/>
+      <c r="G963" s="10"/>
+    </row>
+    <row r="964" spans="3:7" s="8" customFormat="1"/>
+    <row r="965" spans="3:7" s="8" customFormat="1">
+      <c r="C965" s="10"/>
+      <c r="D965" s="10"/>
+      <c r="G965" s="10"/>
+    </row>
+    <row r="966" spans="3:7" s="8" customFormat="1">
+      <c r="C966" s="10"/>
+      <c r="D966" s="10"/>
+      <c r="G966" s="10"/>
+    </row>
+    <row r="967" spans="3:7" s="8" customFormat="1"/>
+    <row r="968" spans="3:7" s="8" customFormat="1">
+      <c r="C968" s="10"/>
+      <c r="D968" s="10"/>
+      <c r="G968" s="10"/>
+    </row>
+    <row r="969" spans="3:7" s="8" customFormat="1">
+      <c r="C969" s="10"/>
+      <c r="D969" s="10"/>
+      <c r="G969" s="10"/>
+    </row>
+    <row r="970" spans="3:7" s="8" customFormat="1">
+      <c r="C970" s="10"/>
+      <c r="D970" s="10"/>
+      <c r="G970" s="10"/>
+    </row>
+    <row r="971" spans="3:7" s="8" customFormat="1"/>
+    <row r="972" spans="3:7" s="8" customFormat="1">
+      <c r="C972" s="10"/>
+      <c r="D972" s="10"/>
+      <c r="G972" s="10"/>
+    </row>
+    <row r="973" spans="3:7" s="8" customFormat="1">
+      <c r="C973" s="10"/>
+      <c r="D973" s="10"/>
+      <c r="G973" s="10"/>
+    </row>
+    <row r="974" spans="3:7" s="8" customFormat="1">
+      <c r="C974" s="10"/>
+      <c r="D974" s="10"/>
+      <c r="G974" s="10"/>
+    </row>
+    <row r="975" spans="3:7" s="8" customFormat="1"/>
+    <row r="976" spans="3:7" s="8" customFormat="1">
+      <c r="C976" s="10"/>
+      <c r="D976" s="10"/>
+      <c r="G976" s="10"/>
+    </row>
+    <row r="977" spans="3:7" s="8" customFormat="1">
+      <c r="C977" s="10"/>
+      <c r="D977" s="10"/>
+      <c r="G977" s="10"/>
+    </row>
+    <row r="978" spans="3:7" s="8" customFormat="1">
+      <c r="C978" s="10"/>
+      <c r="D978" s="10"/>
+      <c r="G978" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -50075,7 +50367,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_1.26/permission_server_config.xlsx
+++ b/config_1.26/permission_server_config.xlsx
@@ -9672,7 +9672,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_1000238</t>
+    <t>actp_own_task_1000238</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15342,7 +15342,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D328" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C357" sqref="C357"/>
+      <selection pane="bottomRight" activeCell="C359" sqref="C359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_1.26/permission_server_config.xlsx
+++ b/config_1.26/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -15345,11 +15345,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D337" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G337" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G358" sqref="G358"/>
+      <selection pane="bottomRight" activeCell="K355" sqref="K355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27449,7 +27449,7 @@
         <v>1127</v>
       </c>
       <c r="K358" s="116">
-        <v>1588028400</v>
+        <v>1611590400</v>
       </c>
       <c r="L358" s="29" t="s">
         <v>2087</v>
@@ -27552,11 +27552,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I978"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C933" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C950" sqref="C950"/>
+      <selection pane="bottomRight" activeCell="E949" sqref="E949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_1.26/permission_server_config.xlsx
+++ b/config_1.26/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -15345,7 +15345,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G337" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -27552,11 +27552,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I978"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C933" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C930" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E949" sqref="E949"/>
+      <selection pane="bottomRight" activeCell="D943" sqref="D943"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -50139,7 +50139,7 @@
         <v>1128</v>
       </c>
       <c r="D943" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E943" s="8">
         <v>3</v>
@@ -50163,7 +50163,7 @@
         <v>1128</v>
       </c>
       <c r="D944" s="8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E944" s="8">
         <v>4</v>

--- a/config_1.26/permission_server_config.xlsx
+++ b/config_1.26/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="2090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4867" uniqueCount="2099">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9693,6 +9693,38 @@
   </si>
   <si>
     <t>tag_class_new_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_golden_egg_1</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_golden_egg_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_golden_egg_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年2月1日23:59:60结束</t>
+  </si>
+  <si>
+    <t>2021年2月1日23:59:61结束</t>
+  </si>
+  <si>
+    <t>2021年2月1日23:59:62结束</t>
+  </si>
+  <si>
+    <t>疯狂敲金蛋V3以下</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋V4V7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋V8V12</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9963,7 +9995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10286,6 +10318,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15346,10 +15381,10 @@
   <dimension ref="A1:O365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G337" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E337" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K355" sqref="K355"/>
+      <selection pane="bottomRight" activeCell="H360" sqref="H360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27116,7 +27151,7 @@
       </c>
     </row>
     <row r="349" spans="1:12" s="105" customFormat="1">
-      <c r="A349" s="103">
+      <c r="A349" s="17">
         <v>348</v>
       </c>
       <c r="B349" s="103">
@@ -27150,7 +27185,7 @@
       </c>
     </row>
     <row r="350" spans="1:12" s="105" customFormat="1">
-      <c r="A350" s="103">
+      <c r="A350" s="17">
         <v>349</v>
       </c>
       <c r="B350" s="103">
@@ -27184,7 +27219,7 @@
       </c>
     </row>
     <row r="351" spans="1:12" s="105" customFormat="1">
-      <c r="A351" s="103">
+      <c r="A351" s="17">
         <v>350</v>
       </c>
       <c r="B351" s="103">
@@ -27218,7 +27253,7 @@
       </c>
     </row>
     <row r="352" spans="1:12" s="105" customFormat="1">
-      <c r="A352" s="103">
+      <c r="A352" s="17">
         <v>351</v>
       </c>
       <c r="B352" s="103">
@@ -27252,7 +27287,7 @@
       </c>
     </row>
     <row r="353" spans="1:12" s="105" customFormat="1">
-      <c r="A353" s="103">
+      <c r="A353" s="17">
         <v>352</v>
       </c>
       <c r="B353" s="103">
@@ -27455,41 +27490,107 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="359" spans="1:12" s="22" customFormat="1">
-      <c r="A359" s="17"/>
-      <c r="B359" s="17"/>
-      <c r="C359" s="17"/>
-      <c r="D359" s="16"/>
-      <c r="E359" s="17"/>
-      <c r="F359" s="17"/>
-      <c r="G359" s="17"/>
-      <c r="J359" s="17"/>
-      <c r="K359" s="17"/>
-      <c r="L359" s="16"/>
-    </row>
-    <row r="360" spans="1:12" s="22" customFormat="1">
-      <c r="A360" s="17"/>
-      <c r="B360" s="17"/>
-      <c r="C360" s="17"/>
-      <c r="D360" s="16"/>
-      <c r="E360" s="17"/>
-      <c r="F360" s="17"/>
-      <c r="G360" s="17"/>
-      <c r="J360" s="17"/>
-      <c r="K360" s="17"/>
-      <c r="L360" s="16"/>
-    </row>
-    <row r="361" spans="1:12" s="22" customFormat="1">
-      <c r="A361" s="17"/>
-      <c r="B361" s="17"/>
-      <c r="C361" s="17"/>
-      <c r="D361" s="16"/>
-      <c r="E361" s="17"/>
-      <c r="F361" s="17"/>
-      <c r="G361" s="17"/>
-      <c r="J361" s="17"/>
-      <c r="K361" s="17"/>
-      <c r="L361" s="16"/>
+    <row r="359" spans="1:12" s="22" customFormat="1" ht="16.5">
+      <c r="A359" s="17">
+        <v>358</v>
+      </c>
+      <c r="B359" s="28">
+        <v>1</v>
+      </c>
+      <c r="C359" s="118" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D359" s="29" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E359" s="28"/>
+      <c r="F359" s="28"/>
+      <c r="G359" s="28">
+        <v>389</v>
+      </c>
+      <c r="H359" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I359" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J359" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="K359" s="116">
+        <v>1611590400</v>
+      </c>
+      <c r="L359" s="29" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" s="22" customFormat="1" ht="16.5">
+      <c r="A360" s="17">
+        <v>359</v>
+      </c>
+      <c r="B360" s="28">
+        <v>1</v>
+      </c>
+      <c r="C360" s="118" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D360" s="29" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E360" s="28"/>
+      <c r="F360" s="28"/>
+      <c r="G360" s="28">
+        <v>390</v>
+      </c>
+      <c r="H360" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I360" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J360" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="K360" s="116">
+        <v>1611590400</v>
+      </c>
+      <c r="L360" s="29" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" s="22" customFormat="1" ht="16.5">
+      <c r="A361" s="17">
+        <v>360</v>
+      </c>
+      <c r="B361" s="28">
+        <v>1</v>
+      </c>
+      <c r="C361" s="118" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D361" s="29" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E361" s="28"/>
+      <c r="F361" s="28"/>
+      <c r="G361" s="28">
+        <v>391</v>
+      </c>
+      <c r="H361" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I361" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J361" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="K361" s="116">
+        <v>1611590400</v>
+      </c>
+      <c r="L361" s="29" t="s">
+        <v>2095</v>
+      </c>
     </row>
     <row r="362" spans="1:12" s="22" customFormat="1">
       <c r="A362" s="17"/>
@@ -27556,7 +27657,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C930" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D943" sqref="D943"/>
+      <selection pane="bottomRight" activeCell="F955" sqref="F955"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -50316,41 +50417,211 @@
       </c>
     </row>
     <row r="951" spans="1:8" s="8" customFormat="1">
-      <c r="C951" s="10"/>
-      <c r="D951" s="10"/>
-      <c r="G951" s="10"/>
-    </row>
-    <row r="952" spans="1:8" s="8" customFormat="1"/>
+      <c r="A951" s="8">
+        <v>950</v>
+      </c>
+      <c r="B951" s="14">
+        <v>389</v>
+      </c>
+      <c r="C951" s="15" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D951" s="15" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E951" s="14">
+        <v>2</v>
+      </c>
+      <c r="F951" s="14">
+        <v>1</v>
+      </c>
+      <c r="G951" s="15" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" s="8" customFormat="1">
+      <c r="A952" s="8">
+        <v>951</v>
+      </c>
+      <c r="B952" s="14">
+        <v>389</v>
+      </c>
+      <c r="C952" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="D952" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="E952" s="14">
+        <v>2</v>
+      </c>
+      <c r="F952" s="14">
+        <v>2</v>
+      </c>
+      <c r="G952" s="15" t="s">
+        <v>2066</v>
+      </c>
+    </row>
     <row r="953" spans="1:8" s="8" customFormat="1">
-      <c r="C953" s="10"/>
-      <c r="D953" s="10"/>
-      <c r="G953" s="10"/>
+      <c r="A953" s="8">
+        <v>952</v>
+      </c>
+      <c r="B953" s="14">
+        <v>389</v>
+      </c>
+      <c r="C953" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="D953" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="E953" s="14">
+        <v>2</v>
+      </c>
+      <c r="F953" s="14">
+        <v>3</v>
+      </c>
+      <c r="G953" s="15" t="s">
+        <v>2067</v>
+      </c>
     </row>
     <row r="954" spans="1:8" s="8" customFormat="1">
-      <c r="C954" s="10"/>
-      <c r="D954" s="10"/>
-      <c r="G954" s="10"/>
+      <c r="A954" s="8">
+        <v>953</v>
+      </c>
+      <c r="B954" s="14">
+        <v>390</v>
+      </c>
+      <c r="C954" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D954" s="14">
+        <v>1</v>
+      </c>
+      <c r="E954" s="14">
+        <v>3</v>
+      </c>
+      <c r="F954" s="14">
+        <v>1</v>
+      </c>
+      <c r="G954" s="15" t="s">
+        <v>2068</v>
+      </c>
     </row>
     <row r="955" spans="1:8" s="8" customFormat="1">
-      <c r="C955" s="10"/>
-      <c r="D955" s="10"/>
-      <c r="G955" s="10"/>
-    </row>
-    <row r="956" spans="1:8" s="8" customFormat="1"/>
+      <c r="A955" s="8">
+        <v>954</v>
+      </c>
+      <c r="B955" s="14">
+        <v>390</v>
+      </c>
+      <c r="C955" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D955" s="14">
+        <v>7</v>
+      </c>
+      <c r="E955" s="14">
+        <v>4</v>
+      </c>
+      <c r="F955" s="14">
+        <v>1</v>
+      </c>
+      <c r="G955" s="15" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8" s="8" customFormat="1">
+      <c r="A956" s="8">
+        <v>955</v>
+      </c>
+      <c r="B956" s="14">
+        <v>390</v>
+      </c>
+      <c r="C956" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="D956" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="E956" s="14">
+        <v>5</v>
+      </c>
+      <c r="F956" s="14">
+        <v>1</v>
+      </c>
+      <c r="G956" s="15" t="s">
+        <v>2070</v>
+      </c>
+    </row>
     <row r="957" spans="1:8" s="8" customFormat="1">
-      <c r="C957" s="10"/>
-      <c r="D957" s="10"/>
-      <c r="G957" s="10"/>
+      <c r="A957" s="8">
+        <v>956</v>
+      </c>
+      <c r="B957" s="14">
+        <v>391</v>
+      </c>
+      <c r="C957" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D957" s="14">
+        <v>8</v>
+      </c>
+      <c r="E957" s="14">
+        <v>3</v>
+      </c>
+      <c r="F957" s="14">
+        <v>1</v>
+      </c>
+      <c r="G957" s="15" t="s">
+        <v>2068</v>
+      </c>
     </row>
     <row r="958" spans="1:8" s="8" customFormat="1">
-      <c r="C958" s="10"/>
-      <c r="D958" s="10"/>
-      <c r="G958" s="10"/>
+      <c r="A958" s="8">
+        <v>957</v>
+      </c>
+      <c r="B958" s="14">
+        <v>391</v>
+      </c>
+      <c r="C958" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D958" s="14">
+        <v>12</v>
+      </c>
+      <c r="E958" s="14">
+        <v>4</v>
+      </c>
+      <c r="F958" s="14">
+        <v>1</v>
+      </c>
+      <c r="G958" s="15" t="s">
+        <v>2069</v>
+      </c>
     </row>
     <row r="959" spans="1:8" s="8" customFormat="1">
-      <c r="C959" s="10"/>
-      <c r="D959" s="10"/>
-      <c r="G959" s="10"/>
+      <c r="A959" s="8">
+        <v>958</v>
+      </c>
+      <c r="B959" s="14">
+        <v>391</v>
+      </c>
+      <c r="C959" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="D959" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="E959" s="14">
+        <v>5</v>
+      </c>
+      <c r="F959" s="14">
+        <v>1</v>
+      </c>
+      <c r="G959" s="15" t="s">
+        <v>2070</v>
+      </c>
     </row>
     <row r="960" spans="1:8" s="8" customFormat="1"/>
     <row r="961" spans="3:7" s="8" customFormat="1">

--- a/config_1.26/permission_server_config.xlsx
+++ b/config_1.26/permission_server_config.xlsx
@@ -15384,7 +15384,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="E337" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H360" sqref="H360"/>
+      <selection pane="bottomRight" activeCell="C360" sqref="C360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27657,7 +27657,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C930" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F955" sqref="F955"/>
+      <selection pane="bottomRight" activeCell="D962" sqref="D962"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
